--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_19_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_19_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>653412.5561758244</v>
+        <v>649246.0231741962</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6528279.443747051</v>
+        <v>6528279.443747058</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4560308.37126166</v>
+        <v>4560308.371261657</v>
       </c>
     </row>
     <row r="11">
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>36.39025468426209</v>
+        <v>40.6378963153706</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1268,16 +1268,16 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>37.06736141641883</v>
       </c>
       <c r="V9" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>41.31500304752735</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>17.8422975499833</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>17.8422975499833</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1375,16 +1375,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>352.3954878227165</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>395.5076644073176</v>
+        <v>61.64415772244516</v>
       </c>
       <c r="H11" t="n">
         <v>267.0243359415286</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>165.6321784895726</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -1536,7 +1536,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>49.60664915306982</v>
       </c>
       <c r="T13" t="n">
         <v>239.8247518556274</v>
@@ -1587,7 +1587,7 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>124.3288136085603</v>
+        <v>111.3179592281893</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1827,13 +1827,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>11.45461388085811</v>
+        <v>174.1357541617755</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1858,10 +1858,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
-        <v>77.79553947091692</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>277.3346672405926</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2004,25 +2004,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>121.1231442667707</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>87.56931538056975</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>275.6027656317444</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -2098,7 +2098,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
-        <v>230.2387177456835</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735099</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>188.5078921861418</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>44.17482029426311</v>
+        <v>44.1748202942631</v>
       </c>
       <c r="T21" t="n">
         <v>124.8306395731037</v>
@@ -2244,7 +2244,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2256,7 +2256,7 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>6.122931086761201</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>126.0809427646077</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U22" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2320,16 +2320,16 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2371,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.3474170061614</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.4743901009363</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
@@ -2383,10 +2383,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>79.73836174287973</v>
+        <v>30.40579947666098</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2414,7 +2414,7 @@
         <v>83.48997313787744</v>
       </c>
       <c r="H24" t="n">
-        <v>31.26186115178158</v>
+        <v>31.26186115178159</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>43.47982952007817</v>
+        <v>43.47982952007819</v>
       </c>
       <c r="T24" t="n">
         <v>124.6798257545734</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>18.66277382502015</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>134.8550812659105</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2490,13 +2490,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.0624000411058</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>61.52099607453884</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>142.4356049655858</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>239.6907226285777</v>
@@ -2544,7 +2544,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>433.7610480884109</v>
@@ -2563,16 +2563,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>298.0481924984615</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>266.3081572941393</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>38.46815833415823</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>36.6401768625576</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
@@ -2651,7 +2651,7 @@
         <v>83.48997313787744</v>
       </c>
       <c r="H27" t="n">
-        <v>31.26186115178158</v>
+        <v>31.26186115178159</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>43.47982952007817</v>
+        <v>43.47982952007819</v>
       </c>
       <c r="T27" t="n">
         <v>124.6798257545734</v>
@@ -2730,7 +2730,7 @@
         <v>163.0624000411058</v>
       </c>
       <c r="H28" t="n">
-        <v>47.26419098289259</v>
+        <v>130.7417251547865</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>239.6907226285777</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6010546203353</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2781,7 +2781,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>177.5782717988941</v>
       </c>
     </row>
     <row r="29">
@@ -2791,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>233.9293668997104</v>
       </c>
       <c r="C29" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>38.46815833415823</v>
+        <v>38.46815833415829</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.3474170061614</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4743901009363</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>196.5169763065624</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2888,7 +2888,7 @@
         <v>83.48997313787744</v>
       </c>
       <c r="H30" t="n">
-        <v>31.26186115178158</v>
+        <v>31.26186115178159</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>43.47982952007817</v>
+        <v>43.47982952007819</v>
       </c>
       <c r="T30" t="n">
         <v>124.6798257545734</v>
@@ -2955,22 +2955,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.0624000411058</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>130.7417251547865</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>61.52099607453887</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.4356049655858</v>
+        <v>58.97222545709269</v>
       </c>
       <c r="T31" t="n">
-        <v>232.1101989289055</v>
+        <v>239.6907226285777</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6010546203353</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3040,10 +3040,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>303.9244237084129</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>281.1425684566028</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3091,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
@@ -3125,7 +3125,7 @@
         <v>83.48997313787744</v>
       </c>
       <c r="H33" t="n">
-        <v>31.26186115178158</v>
+        <v>31.26186115178159</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>43.47982952007817</v>
+        <v>43.47982952007819</v>
       </c>
       <c r="T33" t="n">
         <v>124.6798257545734</v>
@@ -3189,7 +3189,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3198,16 +3198,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>163.0624000411058</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>130.7417251547865</v>
       </c>
       <c r="I34" t="n">
-        <v>61.52099607453884</v>
+        <v>61.52099607453887</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>21.65352690011171</v>
+        <v>142.4356049655858</v>
       </c>
       <c r="T34" t="n">
         <v>239.6907226285777</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6010546203353</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>87.95736042844086</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
@@ -3280,7 +3280,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>242.0706706342969</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>38.46815833415828</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>213.1166244973774</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
@@ -3362,7 +3362,7 @@
         <v>83.48997313787744</v>
       </c>
       <c r="H36" t="n">
-        <v>31.26186115178158</v>
+        <v>31.26186115178159</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>43.47982952007817</v>
+        <v>43.47982952007818</v>
       </c>
       <c r="T36" t="n">
         <v>124.6798257545734</v>
@@ -3432,19 +3432,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>8.138270598358496</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>163.0624000411058</v>
       </c>
       <c r="H37" t="n">
-        <v>130.7417251547865</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>61.52099607453884</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>142.4356049655858</v>
       </c>
       <c r="T37" t="n">
         <v>239.6907226285777</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6010546203353</v>
       </c>
       <c r="V37" t="n">
-        <v>174.9977547935991</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>252.8184469574361</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>38.46815833415829</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>196.5169763065597</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3599,7 +3599,7 @@
         <v>83.48997313787744</v>
       </c>
       <c r="H39" t="n">
-        <v>31.26186115178158</v>
+        <v>31.26186115178159</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>43.47982952007817</v>
+        <v>43.47982952007819</v>
       </c>
       <c r="T39" t="n">
         <v>124.6798257545734</v>
@@ -3666,16 +3666,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>134.855081265911</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>3.140246927696819</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.4356049655858</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>239.6907226285777</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>292.1172498749917</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>245.8365296245414</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3754,10 +3754,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.4377336227562</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>266.3081572941393</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>38.46815833415823</v>
+        <v>38.46815833415829</v>
       </c>
       <c r="T41" t="n">
         <v>209.3474170061614</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4743901009363</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -3836,7 +3836,7 @@
         <v>83.48997313787744</v>
       </c>
       <c r="H42" t="n">
-        <v>31.26186115178158</v>
+        <v>31.26186115178159</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>43.47982952007817</v>
+        <v>43.47982952007819</v>
       </c>
       <c r="T42" t="n">
         <v>124.6798257545734</v>
@@ -3903,7 +3903,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>73.33408519137474</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>130.7417251547865</v>
       </c>
       <c r="I43" t="n">
-        <v>61.52099607453884</v>
+        <v>61.52099607453887</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>239.6907226285777</v>
+        <v>18.0638697946703</v>
       </c>
       <c r="U43" t="n">
         <v>275.6010546203353</v>
@@ -3988,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.4377336227562</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4030,10 +4030,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>117.896250435253</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4743901009363</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4042,10 +4042,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>374.4984528683712</v>
       </c>
     </row>
     <row r="45">
@@ -4073,7 +4073,7 @@
         <v>83.48997313787744</v>
       </c>
       <c r="H45" t="n">
-        <v>31.26186115178158</v>
+        <v>31.26186115178159</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>43.47982952007816</v>
+        <v>43.47982952007818</v>
       </c>
       <c r="T45" t="n">
         <v>124.6798257545734</v>
@@ -4140,10 +4140,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>84.58288953987355</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
@@ -4155,7 +4155,7 @@
         <v>130.7417251547865</v>
       </c>
       <c r="I46" t="n">
-        <v>61.52099607453883</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>239.6907226285777</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>275.6010546203353</v>
       </c>
       <c r="V46" t="n">
-        <v>63.61591304375696</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4859,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>40.06303325820834</v>
+        <v>86.08590667097184</v>
       </c>
       <c r="C9" t="n">
-        <v>40.06303325820834</v>
+        <v>86.08590667097184</v>
       </c>
       <c r="D9" t="n">
-        <v>40.06303325820834</v>
+        <v>44.35358036033816</v>
       </c>
       <c r="E9" t="n">
-        <v>40.06303325820834</v>
+        <v>44.35358036033816</v>
       </c>
       <c r="F9" t="n">
-        <v>40.06303325820834</v>
+        <v>44.35358036033816</v>
       </c>
       <c r="G9" t="n">
-        <v>40.06303325820834</v>
+        <v>44.35358036033816</v>
       </c>
       <c r="H9" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="I9" t="n">
-        <v>16.73554758011547</v>
+        <v>31.77020107089877</v>
       </c>
       <c r="J9" t="n">
-        <v>23.32497423834099</v>
+        <v>38.35962772912429</v>
       </c>
       <c r="K9" t="n">
-        <v>34.5873539456846</v>
+        <v>49.62200743646791</v>
       </c>
       <c r="L9" t="n">
-        <v>49.73101332618943</v>
+        <v>64.76566681697273</v>
       </c>
       <c r="M9" t="n">
-        <v>67.40294954297083</v>
+        <v>82.43760303375414</v>
       </c>
       <c r="N9" t="n">
-        <v>85.54260932692307</v>
+        <v>100.5772628177064</v>
       </c>
       <c r="O9" t="n">
-        <v>102.136854159046</v>
+        <v>117.1715076498293</v>
       </c>
       <c r="P9" t="n">
-        <v>115.4551986112916</v>
+        <v>152.0267083864403</v>
       </c>
       <c r="Q9" t="n">
-        <v>124.3581591730573</v>
+        <v>160.929668948206</v>
       </c>
       <c r="R9" t="n">
         <v>165.2600121901094</v>
@@ -4916,19 +4916,19 @@
         <v>165.2600121901094</v>
       </c>
       <c r="U9" t="n">
-        <v>165.2600121901094</v>
+        <v>127.8182329816055</v>
       </c>
       <c r="V9" t="n">
-        <v>123.5276858794757</v>
+        <v>127.8182329816055</v>
       </c>
       <c r="W9" t="n">
-        <v>123.5276858794757</v>
+        <v>127.8182329816055</v>
       </c>
       <c r="X9" t="n">
-        <v>81.79535956884203</v>
+        <v>127.8182329816055</v>
       </c>
       <c r="Y9" t="n">
-        <v>40.06303325820834</v>
+        <v>86.08590667097184</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.3277230215631</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="C10" t="n">
-        <v>21.3277230215631</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="D10" t="n">
-        <v>21.3277230215631</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="E10" t="n">
-        <v>21.3277230215631</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="F10" t="n">
-        <v>21.3277230215631</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="G10" t="n">
-        <v>21.3277230215631</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="H10" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="I10" t="n">
         <v>3.305200243802188</v>
@@ -4965,22 +4965,22 @@
         <v>7.439194768028656</v>
       </c>
       <c r="K10" t="n">
-        <v>21.63836511796011</v>
+        <v>48.34104778508073</v>
       </c>
       <c r="L10" t="n">
-        <v>62.54021813501218</v>
+        <v>57.07783833162382</v>
       </c>
       <c r="M10" t="n">
-        <v>103.4420711520643</v>
+        <v>66.24364360116697</v>
       </c>
       <c r="N10" t="n">
-        <v>112.3899340588798</v>
+        <v>75.19150650798248</v>
       </c>
       <c r="O10" t="n">
-        <v>153.2917870759318</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="P10" t="n">
-        <v>160.3637509630746</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q10" t="n">
         <v>165.2600121901094</v>
@@ -4995,19 +4995,19 @@
         <v>146.5247019534642</v>
       </c>
       <c r="U10" t="n">
-        <v>146.5247019534642</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="V10" t="n">
-        <v>146.5247019534642</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="W10" t="n">
-        <v>104.7923756428305</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="X10" t="n">
-        <v>63.06004933219679</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="Y10" t="n">
-        <v>21.3277230215631</v>
+        <v>128.5021791757032</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1934.028006962828</v>
+        <v>807.0623585781044</v>
       </c>
       <c r="C11" t="n">
-        <v>1934.028006962828</v>
+        <v>807.0623585781044</v>
       </c>
       <c r="D11" t="n">
-        <v>1578.072968758064</v>
+        <v>807.0623585781044</v>
       </c>
       <c r="E11" t="n">
-        <v>1144.298223916359</v>
+        <v>807.0623585781044</v>
       </c>
       <c r="F11" t="n">
-        <v>716.4307943255671</v>
+        <v>379.1949289873122</v>
       </c>
       <c r="G11" t="n">
         <v>316.9281030050443</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001352</v>
+        <v>118.4065018001356</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L11" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M11" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N11" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O11" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q11" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R11" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447736</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V11" t="n">
-        <v>2360.327577447736</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="W11" t="n">
-        <v>2360.327577447736</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="X11" t="n">
-        <v>2360.327577447736</v>
+        <v>1641.648052763359</v>
       </c>
       <c r="Y11" t="n">
-        <v>2360.327577447736</v>
+        <v>1233.361929063012</v>
       </c>
     </row>
     <row r="12">
@@ -5111,13 +5111,13 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J12" t="n">
         <v>175.316627066898</v>
@@ -5126,10 +5126,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M12" t="n">
-        <v>803.3877032987881</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>927.5506608361497</v>
+        <v>757.7926570868869</v>
       </c>
       <c r="C13" t="n">
-        <v>754.9889493193747</v>
+        <v>585.2309455701119</v>
       </c>
       <c r="D13" t="n">
-        <v>589.1109565208974</v>
+        <v>419.3529527716346</v>
       </c>
       <c r="E13" t="n">
         <v>419.3529527716346</v>
@@ -5196,55 +5196,55 @@
         <v>110.3018381127067</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J13" t="n">
-        <v>106.1122152511378</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K13" t="n">
         <v>202.912315818696</v>
       </c>
       <c r="L13" t="n">
-        <v>481.9462364092371</v>
+        <v>588.0160255186817</v>
       </c>
       <c r="M13" t="n">
-        <v>1066.127311827552</v>
+        <v>718.6204178572111</v>
       </c>
       <c r="N13" t="n">
-        <v>1635.885026789086</v>
+        <v>1288.378132818745</v>
       </c>
       <c r="O13" t="n">
-        <v>2173.320157362629</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P13" t="n">
-        <v>2274.089213540313</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R13" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S13" t="n">
-        <v>2360.327577447736</v>
+        <v>2310.219851030495</v>
       </c>
       <c r="T13" t="n">
-        <v>2118.080353351143</v>
+        <v>2067.972626933901</v>
       </c>
       <c r="U13" t="n">
-        <v>1839.693721399886</v>
+        <v>1789.585994982644</v>
       </c>
       <c r="V13" t="n">
-        <v>1839.693721399886</v>
+        <v>1502.630486853075</v>
       </c>
       <c r="W13" t="n">
-        <v>1567.667316986177</v>
+        <v>1230.604082439366</v>
       </c>
       <c r="X13" t="n">
-        <v>1322.27556231959</v>
+        <v>985.2123277727787</v>
       </c>
       <c r="Y13" t="n">
-        <v>1094.855891633698</v>
+        <v>757.7926570868869</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1470.343171017674</v>
+        <v>1262.647922226049</v>
       </c>
       <c r="C14" t="n">
-        <v>1344.758510807007</v>
+        <v>1150.205539167272</v>
       </c>
       <c r="D14" t="n">
-        <v>908.8487259814518</v>
+        <v>1150.205539167272</v>
       </c>
       <c r="E14" t="n">
-        <v>475.073981139747</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F14" t="n">
-        <v>47.20655154895474</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G14" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001352</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M14" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N14" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q14" t="n">
         <v>2243.650993163596</v>
@@ -5305,25 +5305,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T14" t="n">
-        <v>2148.556325916849</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U14" t="n">
-        <v>1889.485634438363</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V14" t="n">
-        <v>1889.485634438363</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="W14" t="n">
-        <v>1889.485634438363</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="X14" t="n">
-        <v>1470.343171017674</v>
+        <v>1688.947492710957</v>
       </c>
       <c r="Y14" t="n">
-        <v>1470.343171017674</v>
+        <v>1688.947492710957</v>
       </c>
     </row>
     <row r="15">
@@ -5336,25 +5336,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E15" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J15" t="n">
         <v>175.316627066898</v>
@@ -5412,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>732.1113136517137</v>
+        <v>795.2066002154656</v>
       </c>
       <c r="C16" t="n">
-        <v>559.5496021349386</v>
+        <v>622.6448886986906</v>
       </c>
       <c r="D16" t="n">
-        <v>393.6716093364613</v>
+        <v>456.7668959002132</v>
       </c>
       <c r="E16" t="n">
-        <v>223.9136055871985</v>
+        <v>287.0088921509505</v>
       </c>
       <c r="F16" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="G16" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H16" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J16" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K16" t="n">
-        <v>564.2504555545214</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L16" t="n">
-        <v>688.1212571728194</v>
+        <v>1019.75145377609</v>
       </c>
       <c r="M16" t="n">
-        <v>818.7256495113488</v>
+        <v>1160.879221014855</v>
       </c>
       <c r="N16" t="n">
-        <v>1120.185357954413</v>
+        <v>1288.378132818745</v>
       </c>
       <c r="O16" t="n">
-        <v>1657.620488527957</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P16" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
@@ -5463,7 +5463,7 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S16" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T16" t="n">
         <v>1973.653814855378</v>
@@ -5472,16 +5472,16 @@
         <v>1695.267182904121</v>
       </c>
       <c r="V16" t="n">
-        <v>1408.311674774552</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W16" t="n">
-        <v>1396.74135772318</v>
+        <v>1232.41697360104</v>
       </c>
       <c r="X16" t="n">
-        <v>1151.349603056593</v>
+        <v>987.0252189344528</v>
       </c>
       <c r="Y16" t="n">
-        <v>923.9299323707007</v>
+        <v>987.0252189344528</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>553.6553341406732</v>
+        <v>1312.719145276847</v>
       </c>
       <c r="C17" t="n">
-        <v>553.6553341406732</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="D17" t="n">
-        <v>553.6553341406732</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="E17" t="n">
-        <v>553.6553341406732</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F17" t="n">
-        <v>125.7879045498809</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G17" t="n">
-        <v>125.7879045498809</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H17" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M17" t="n">
         <v>1131.58869045549</v>
@@ -5536,7 +5536,7 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q17" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R17" t="n">
         <v>2360.327577447737</v>
@@ -5545,22 +5545,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T17" t="n">
-        <v>2148.556325916849</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U17" t="n">
-        <v>2148.556325916849</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V17" t="n">
-        <v>1785.939375850676</v>
+        <v>1997.710627381563</v>
       </c>
       <c r="W17" t="n">
-        <v>1381.083921261709</v>
+        <v>1592.855172792597</v>
       </c>
       <c r="X17" t="n">
-        <v>961.9414578410198</v>
+        <v>1312.719145276847</v>
       </c>
       <c r="Y17" t="n">
-        <v>553.6553341406732</v>
+        <v>1312.719145276847</v>
       </c>
     </row>
     <row r="18">
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>471.655226289377</v>
+        <v>713.9024503859703</v>
       </c>
       <c r="C19" t="n">
-        <v>471.655226289377</v>
+        <v>541.3407388691952</v>
       </c>
       <c r="D19" t="n">
-        <v>349.3086159189016</v>
+        <v>375.4627460707179</v>
       </c>
       <c r="E19" t="n">
-        <v>179.5506121696388</v>
+        <v>287.0088921509505</v>
       </c>
       <c r="F19" t="n">
-        <v>179.5506121696388</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="G19" t="n">
-        <v>179.5506121696388</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H19" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I19" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="J19" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K19" t="n">
-        <v>358.0754347909399</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L19" t="n">
-        <v>481.9462364092378</v>
+        <v>588.0160255186817</v>
       </c>
       <c r="M19" t="n">
-        <v>1066.127311827553</v>
+        <v>718.6204178572111</v>
       </c>
       <c r="N19" t="n">
-        <v>1635.885026789087</v>
+        <v>1288.378132818745</v>
       </c>
       <c r="O19" t="n">
-        <v>2173.32015736263</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P19" t="n">
         <v>2274.089213540314</v>
@@ -5703,22 +5703,22 @@
         <v>2215.901038951972</v>
       </c>
       <c r="T19" t="n">
-        <v>1973.653814855378</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="U19" t="n">
-        <v>1695.267182904121</v>
+        <v>1937.514407000715</v>
       </c>
       <c r="V19" t="n">
-        <v>1408.311674774552</v>
+        <v>1650.558898871145</v>
       </c>
       <c r="W19" t="n">
-        <v>1136.285270360843</v>
+        <v>1378.532494457437</v>
       </c>
       <c r="X19" t="n">
-        <v>890.8935156942559</v>
+        <v>1133.140739790849</v>
       </c>
       <c r="Y19" t="n">
-        <v>663.4738450083642</v>
+        <v>905.7210691049575</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1548.958133896014</v>
+        <v>1150.205539167272</v>
       </c>
       <c r="C20" t="n">
-        <v>1548.958133896014</v>
+        <v>1150.205539167272</v>
       </c>
       <c r="D20" t="n">
-        <v>1113.048349070459</v>
+        <v>1150.205539167272</v>
       </c>
       <c r="E20" t="n">
-        <v>679.2736042287538</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F20" t="n">
-        <v>679.2736042287538</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G20" t="n">
-        <v>279.770912908231</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435814</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228024</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L20" t="n">
-        <v>805.440802286703</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M20" t="n">
         <v>1131.58869045549</v>
       </c>
       <c r="N20" t="n">
-        <v>1463.013992431968</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O20" t="n">
         <v>1775.96950697326</v>
@@ -5773,31 +5773,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q20" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R20" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2319.861207662535</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T20" t="n">
-        <v>2319.861207662535</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U20" t="n">
-        <v>2319.861207662535</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V20" t="n">
-        <v>1957.244257596361</v>
+        <v>1745.473006065473</v>
       </c>
       <c r="W20" t="n">
-        <v>1957.244257596361</v>
+        <v>1340.617551476506</v>
       </c>
       <c r="X20" t="n">
-        <v>1957.244257596361</v>
+        <v>1150.205539167272</v>
       </c>
       <c r="Y20" t="n">
-        <v>1548.958133896014</v>
+        <v>1150.205539167272</v>
       </c>
     </row>
     <row r="21">
@@ -5813,19 +5813,19 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D21" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E21" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F21" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G21" t="n">
         <v>79.1492015823585</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I21" t="n">
         <v>81.42328772043086</v>
@@ -5834,13 +5834,13 @@
         <v>175.316627066898</v>
       </c>
       <c r="K21" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L21" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960907</v>
       </c>
       <c r="M21" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987882</v>
       </c>
       <c r="N21" t="n">
         <v>1061.861364220108</v>
@@ -5886,52 +5886,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>730.974501240718</v>
+        <v>903.0372729147116</v>
       </c>
       <c r="C22" t="n">
-        <v>558.412789723943</v>
+        <v>730.4755613979365</v>
       </c>
       <c r="D22" t="n">
-        <v>558.412789723943</v>
+        <v>564.5975685994592</v>
       </c>
       <c r="E22" t="n">
-        <v>388.6547859746802</v>
+        <v>394.8395648501965</v>
       </c>
       <c r="F22" t="n">
-        <v>211.9477319364364</v>
+        <v>218.1325108119527</v>
       </c>
       <c r="G22" t="n">
-        <v>47.20655154895475</v>
+        <v>53.39133042447111</v>
       </c>
       <c r="H22" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J22" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K22" t="n">
-        <v>358.0754347909402</v>
+        <v>202.9123158186961</v>
       </c>
       <c r="L22" t="n">
-        <v>481.9462364092382</v>
+        <v>744.9929992049551</v>
       </c>
       <c r="M22" t="n">
-        <v>1066.127311827553</v>
+        <v>1329.17407462327</v>
       </c>
       <c r="N22" t="n">
-        <v>1635.885026789087</v>
+        <v>1898.931789584804</v>
       </c>
       <c r="O22" t="n">
-        <v>2173.320157362631</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P22" t="n">
         <v>2274.089213540314</v>
       </c>
       <c r="Q22" t="n">
-        <v>2343.85648477097</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R22" t="n">
         <v>2360.327577447737</v>
@@ -5940,22 +5940,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T22" t="n">
-        <v>2232.97308980672</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U22" t="n">
-        <v>1954.586457855462</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V22" t="n">
-        <v>1667.630949725893</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="W22" t="n">
-        <v>1395.604545312184</v>
+        <v>1567.667316986178</v>
       </c>
       <c r="X22" t="n">
-        <v>1150.212790645597</v>
+        <v>1322.275562319591</v>
       </c>
       <c r="Y22" t="n">
-        <v>922.7931199597051</v>
+        <v>1094.855891633699</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1192.016778454078</v>
+        <v>1179.606695244443</v>
       </c>
       <c r="C23" t="n">
-        <v>753.8743056375013</v>
+        <v>1179.606695244443</v>
       </c>
       <c r="D23" t="n">
-        <v>317.9645208119457</v>
+        <v>1179.606695244443</v>
       </c>
       <c r="E23" t="n">
-        <v>317.9645208119457</v>
+        <v>745.8319504027379</v>
       </c>
       <c r="F23" t="n">
         <v>317.9645208119457</v>
@@ -5983,58 +5983,58 @@
         <v>317.9645208119457</v>
       </c>
       <c r="H23" t="n">
-        <v>48.96638213099695</v>
+        <v>48.96638213099689</v>
       </c>
       <c r="I23" t="n">
-        <v>122.8353788882626</v>
+        <v>122.8353788882622</v>
       </c>
       <c r="J23" t="n">
-        <v>286.3580891786137</v>
+        <v>286.3580891786133</v>
       </c>
       <c r="K23" t="n">
-        <v>531.4362430141196</v>
+        <v>531.4362430141188</v>
       </c>
       <c r="L23" t="n">
-        <v>835.4773641398456</v>
+        <v>835.4773641398444</v>
       </c>
       <c r="M23" t="n">
-        <v>1173.781693844503</v>
+        <v>1173.781693844501</v>
       </c>
       <c r="N23" t="n">
-        <v>1517.560141290068</v>
+        <v>1517.560141290066</v>
       </c>
       <c r="O23" t="n">
-        <v>1842.180380803856</v>
+        <v>1842.180380803854</v>
       </c>
       <c r="P23" t="n">
-        <v>2119.236244874201</v>
+        <v>2119.236244874198</v>
       </c>
       <c r="Q23" t="n">
-        <v>2327.293660516459</v>
+        <v>2327.293660516456</v>
       </c>
       <c r="R23" t="n">
-        <v>2448.319106549847</v>
+        <v>2448.319106549844</v>
       </c>
       <c r="S23" t="n">
-        <v>2448.319106549847</v>
+        <v>2448.319106549844</v>
       </c>
       <c r="T23" t="n">
-        <v>2448.319106549847</v>
+        <v>2236.857069169883</v>
       </c>
       <c r="U23" t="n">
-        <v>2448.319106549847</v>
+        <v>1977.792028663887</v>
       </c>
       <c r="V23" t="n">
-        <v>2085.702156483674</v>
+        <v>1615.175078597714</v>
       </c>
       <c r="W23" t="n">
-        <v>1680.846701894707</v>
+        <v>1210.319624008747</v>
       </c>
       <c r="X23" t="n">
-        <v>1600.302902154424</v>
+        <v>1179.606695244443</v>
       </c>
       <c r="Y23" t="n">
-        <v>1192.016778454078</v>
+        <v>1179.606695244443</v>
       </c>
     </row>
     <row r="24">
@@ -6047,46 +6047,46 @@
         <v>543.9283289316144</v>
       </c>
       <c r="C24" t="n">
-        <v>437.4718677682567</v>
+        <v>437.4718677682566</v>
       </c>
       <c r="D24" t="n">
         <v>342.3815789148099</v>
       </c>
       <c r="E24" t="n">
-        <v>248.2611642417637</v>
+        <v>248.2611642417636</v>
       </c>
       <c r="F24" t="n">
-        <v>164.8773258579253</v>
+        <v>164.8773258579252</v>
       </c>
       <c r="G24" t="n">
-        <v>80.54401965804905</v>
+        <v>80.54401965804901</v>
       </c>
       <c r="H24" t="n">
-        <v>48.96638213099695</v>
+        <v>48.96638213099689</v>
       </c>
       <c r="I24" t="n">
-        <v>84.45847150237348</v>
+        <v>84.45847150237337</v>
       </c>
       <c r="J24" t="n">
-        <v>181.8514775085928</v>
+        <v>181.8514775085926</v>
       </c>
       <c r="K24" t="n">
-        <v>348.3116373029839</v>
+        <v>348.3116373029834</v>
       </c>
       <c r="L24" t="n">
-        <v>572.137864606168</v>
+        <v>572.1378646061673</v>
       </c>
       <c r="M24" t="n">
-        <v>833.3325146678777</v>
+        <v>833.3325146678768</v>
       </c>
       <c r="N24" t="n">
-        <v>1039.446624623284</v>
+        <v>1101.440209907782</v>
       </c>
       <c r="O24" t="n">
         <v>1284.712786677942</v>
       </c>
       <c r="P24" t="n">
-        <v>1481.560504773609</v>
+        <v>1481.56050477361</v>
       </c>
       <c r="Q24" t="n">
         <v>1613.147991278647</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>960.7230595020837</v>
+        <v>704.2104052392285</v>
       </c>
       <c r="C25" t="n">
-        <v>788.1613479853087</v>
+        <v>531.6486937224535</v>
       </c>
       <c r="D25" t="n">
-        <v>622.2833551868314</v>
+        <v>395.4314399185034</v>
       </c>
       <c r="E25" t="n">
-        <v>452.5253514375687</v>
+        <v>225.6734361692407</v>
       </c>
       <c r="F25" t="n">
-        <v>275.8182973993249</v>
+        <v>48.96638213099689</v>
       </c>
       <c r="G25" t="n">
-        <v>111.1088024083089</v>
+        <v>48.96638213099689</v>
       </c>
       <c r="H25" t="n">
-        <v>111.1088024083089</v>
+        <v>48.96638213099689</v>
       </c>
       <c r="I25" t="n">
-        <v>48.96638213099695</v>
+        <v>48.96638213099689</v>
       </c>
       <c r="J25" t="n">
-        <v>196.6473093931426</v>
+        <v>145.1794874168054</v>
       </c>
       <c r="K25" t="n">
-        <v>571.8138742903016</v>
+        <v>245.5875977428287</v>
       </c>
       <c r="L25" t="n">
-        <v>1118.511567973113</v>
+        <v>374.075409657679</v>
       </c>
       <c r="M25" t="n">
-        <v>1253.983950316745</v>
+        <v>969.0316591822243</v>
       </c>
       <c r="N25" t="n">
-        <v>1386.235102203909</v>
+        <v>1543.541614227033</v>
       </c>
       <c r="O25" t="n">
-        <v>1906.052088583819</v>
+        <v>2085.366207689826</v>
       </c>
       <c r="P25" t="n">
-        <v>2358.083982536744</v>
+        <v>2189.89120767241</v>
       </c>
       <c r="Q25" t="n">
-        <v>2430.45167457219</v>
+        <v>2430.451674572188</v>
       </c>
       <c r="R25" t="n">
-        <v>2448.319106549847</v>
+        <v>2448.319106549844</v>
       </c>
       <c r="S25" t="n">
-        <v>2304.44475809976</v>
+        <v>2448.319106549844</v>
       </c>
       <c r="T25" t="n">
-        <v>2062.332917060793</v>
+        <v>2206.207265510877</v>
       </c>
       <c r="U25" t="n">
-        <v>1783.948013403889</v>
+        <v>1927.822361853973</v>
       </c>
       <c r="V25" t="n">
-        <v>1496.992505274319</v>
+        <v>1640.866853724403</v>
       </c>
       <c r="W25" t="n">
-        <v>1224.966100860611</v>
+        <v>1368.840449310695</v>
       </c>
       <c r="X25" t="n">
-        <v>979.5743461940233</v>
+        <v>1123.448694644107</v>
       </c>
       <c r="Y25" t="n">
-        <v>979.5743461940233</v>
+        <v>896.0290239582157</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>756.1069936285224</v>
+        <v>1216.035064839842</v>
       </c>
       <c r="C26" t="n">
-        <v>317.9645208119458</v>
+        <v>777.8925920232655</v>
       </c>
       <c r="D26" t="n">
-        <v>317.9645208119458</v>
+        <v>777.8925920232655</v>
       </c>
       <c r="E26" t="n">
-        <v>317.9645208119458</v>
+        <v>476.8338117217892</v>
       </c>
       <c r="F26" t="n">
-        <v>317.9645208119458</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="G26" t="n">
-        <v>317.9645208119458</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="H26" t="n">
-        <v>48.96638213099695</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="I26" t="n">
         <v>122.8353788882625</v>
       </c>
       <c r="J26" t="n">
-        <v>286.3580891786137</v>
+        <v>286.3580891786135</v>
       </c>
       <c r="K26" t="n">
-        <v>531.4362430141196</v>
+        <v>531.436243014119</v>
       </c>
       <c r="L26" t="n">
-        <v>835.4773641398456</v>
+        <v>835.4773641398447</v>
       </c>
       <c r="M26" t="n">
-        <v>1173.781693844503</v>
+        <v>1173.781693844501</v>
       </c>
       <c r="N26" t="n">
-        <v>1517.560141290068</v>
+        <v>1517.560141290066</v>
       </c>
       <c r="O26" t="n">
-        <v>1842.180380803857</v>
+        <v>1842.180380803855</v>
       </c>
       <c r="P26" t="n">
-        <v>2119.236244874201</v>
+        <v>2119.236244874198</v>
       </c>
       <c r="Q26" t="n">
-        <v>2327.29366051646</v>
+        <v>2327.293660516456</v>
       </c>
       <c r="R26" t="n">
-        <v>2448.319106549848</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="S26" t="n">
-        <v>2409.462380959789</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="T26" t="n">
-        <v>2409.462380959789</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="U26" t="n">
-        <v>2372.45210130064</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="V26" t="n">
-        <v>2009.835151234466</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="W26" t="n">
-        <v>2009.835151234466</v>
+        <v>2043.463651960878</v>
       </c>
       <c r="X26" t="n">
-        <v>1590.692687813777</v>
+        <v>1624.321188540189</v>
       </c>
       <c r="Y26" t="n">
-        <v>1182.40656411343</v>
+        <v>1216.035064839842</v>
       </c>
     </row>
     <row r="27">
@@ -6284,46 +6284,46 @@
         <v>543.9283289316144</v>
       </c>
       <c r="C27" t="n">
-        <v>437.4718677682567</v>
+        <v>437.4718677682566</v>
       </c>
       <c r="D27" t="n">
         <v>342.3815789148099</v>
       </c>
       <c r="E27" t="n">
-        <v>248.2611642417637</v>
+        <v>248.2611642417636</v>
       </c>
       <c r="F27" t="n">
-        <v>164.8773258579253</v>
+        <v>164.8773258579252</v>
       </c>
       <c r="G27" t="n">
-        <v>80.54401965804905</v>
+        <v>80.54401965804902</v>
       </c>
       <c r="H27" t="n">
-        <v>48.96638213099695</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="I27" t="n">
-        <v>84.45847150237348</v>
+        <v>84.45847150237338</v>
       </c>
       <c r="J27" t="n">
-        <v>119.8578922240936</v>
+        <v>181.8514775085926</v>
       </c>
       <c r="K27" t="n">
-        <v>286.3180520184847</v>
+        <v>348.3116373029835</v>
       </c>
       <c r="L27" t="n">
-        <v>510.1442793216688</v>
+        <v>572.1378646061673</v>
       </c>
       <c r="M27" t="n">
-        <v>771.3389293833785</v>
+        <v>833.3325146678768</v>
       </c>
       <c r="N27" t="n">
-        <v>1039.446624623284</v>
+        <v>1101.440209907782</v>
       </c>
       <c r="O27" t="n">
-        <v>1284.712786677941</v>
+        <v>1284.712786677942</v>
       </c>
       <c r="P27" t="n">
-        <v>1481.560504773609</v>
+        <v>1481.56050477361</v>
       </c>
       <c r="Q27" t="n">
         <v>1613.147991278647</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>946.3222462781987</v>
+        <v>1030.64298786597</v>
       </c>
       <c r="C28" t="n">
-        <v>773.7605347614236</v>
+        <v>858.0812763491953</v>
       </c>
       <c r="D28" t="n">
-        <v>607.8825419629463</v>
+        <v>692.203283550718</v>
       </c>
       <c r="E28" t="n">
-        <v>438.1245382136836</v>
+        <v>522.4452798014552</v>
       </c>
       <c r="F28" t="n">
-        <v>261.4174841754398</v>
+        <v>345.7382257632114</v>
       </c>
       <c r="G28" t="n">
-        <v>96.70798918442381</v>
+        <v>181.0287307721954</v>
       </c>
       <c r="H28" t="n">
-        <v>48.96638213099695</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="I28" t="n">
-        <v>48.96638213099695</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="J28" t="n">
-        <v>196.6473093931426</v>
+        <v>196.6473093931424</v>
       </c>
       <c r="K28" t="n">
-        <v>571.8138742903016</v>
+        <v>571.8138742903013</v>
       </c>
       <c r="L28" t="n">
-        <v>700.301686205152</v>
+        <v>1118.511567973113</v>
       </c>
       <c r="M28" t="n">
-        <v>835.7740685487845</v>
+        <v>1483.452817595309</v>
       </c>
       <c r="N28" t="n">
-        <v>1196.034720256694</v>
+        <v>1615.703969482473</v>
       </c>
       <c r="O28" t="n">
-        <v>1737.859313719487</v>
+        <v>1737.859313719485</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.891207672413</v>
+        <v>2189.89120767241</v>
       </c>
       <c r="Q28" t="n">
-        <v>2430.451674572191</v>
+        <v>2430.451674572188</v>
       </c>
       <c r="R28" t="n">
-        <v>2448.319106549848</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="S28" t="n">
-        <v>2448.319106549848</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="T28" t="n">
-        <v>2448.319106549848</v>
+        <v>2206.207265510878</v>
       </c>
       <c r="U28" t="n">
-        <v>2169.934202892943</v>
+        <v>2206.207265510878</v>
       </c>
       <c r="V28" t="n">
-        <v>1882.978694763374</v>
+        <v>1919.251757381308</v>
       </c>
       <c r="W28" t="n">
-        <v>1610.952290349665</v>
+        <v>1647.2253529676</v>
       </c>
       <c r="X28" t="n">
-        <v>1365.560535683078</v>
+        <v>1401.833598301012</v>
       </c>
       <c r="Y28" t="n">
-        <v>1138.140864997186</v>
+        <v>1222.461606584958</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1784.660814205626</v>
+        <v>920.8835997892784</v>
       </c>
       <c r="C29" t="n">
-        <v>1346.51834138905</v>
+        <v>482.7411269727017</v>
       </c>
       <c r="D29" t="n">
-        <v>910.6085565634941</v>
+        <v>482.7411269727017</v>
       </c>
       <c r="E29" t="n">
-        <v>476.8338117217892</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="F29" t="n">
-        <v>48.96638213099695</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="G29" t="n">
-        <v>48.96638213099695</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="H29" t="n">
-        <v>48.96638213099695</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="I29" t="n">
-        <v>122.8353788882625</v>
+        <v>122.8353788882626</v>
       </c>
       <c r="J29" t="n">
-        <v>286.3580891786137</v>
+        <v>286.358089178614</v>
       </c>
       <c r="K29" t="n">
-        <v>531.4362430141196</v>
+        <v>531.4362430141194</v>
       </c>
       <c r="L29" t="n">
-        <v>835.4773641398456</v>
+        <v>835.477364139845</v>
       </c>
       <c r="M29" t="n">
-        <v>1173.781693844503</v>
+        <v>1173.781693844501</v>
       </c>
       <c r="N29" t="n">
-        <v>1517.560141290068</v>
+        <v>1517.560141290067</v>
       </c>
       <c r="O29" t="n">
-        <v>1842.180380803857</v>
+        <v>1842.180380803855</v>
       </c>
       <c r="P29" t="n">
-        <v>2119.236244874201</v>
+        <v>2119.236244874198</v>
       </c>
       <c r="Q29" t="n">
-        <v>2327.29366051646</v>
+        <v>2327.293660516456</v>
       </c>
       <c r="R29" t="n">
-        <v>2448.319106549848</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="S29" t="n">
-        <v>2409.462380959789</v>
+        <v>2409.462380959786</v>
       </c>
       <c r="T29" t="n">
-        <v>2409.462380959789</v>
+        <v>2198.000343579825</v>
       </c>
       <c r="U29" t="n">
-        <v>2409.462380959789</v>
+        <v>1938.935303073829</v>
       </c>
       <c r="V29" t="n">
-        <v>2409.462380959789</v>
+        <v>1576.318353007655</v>
       </c>
       <c r="W29" t="n">
-        <v>2409.462380959789</v>
+        <v>1576.318353007655</v>
       </c>
       <c r="X29" t="n">
-        <v>2210.960384690534</v>
+        <v>1157.175889586966</v>
       </c>
       <c r="Y29" t="n">
-        <v>2210.960384690534</v>
+        <v>1157.175889586966</v>
       </c>
     </row>
     <row r="30">
@@ -6521,46 +6521,46 @@
         <v>543.9283289316144</v>
       </c>
       <c r="C30" t="n">
-        <v>437.4718677682567</v>
+        <v>437.4718677682566</v>
       </c>
       <c r="D30" t="n">
         <v>342.3815789148099</v>
       </c>
       <c r="E30" t="n">
-        <v>248.2611642417637</v>
+        <v>248.2611642417636</v>
       </c>
       <c r="F30" t="n">
-        <v>164.8773258579253</v>
+        <v>164.8773258579252</v>
       </c>
       <c r="G30" t="n">
-        <v>80.54401965804905</v>
+        <v>80.54401965804902</v>
       </c>
       <c r="H30" t="n">
-        <v>48.96638213099695</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="I30" t="n">
-        <v>84.45847150237348</v>
+        <v>84.45847150237338</v>
       </c>
       <c r="J30" t="n">
-        <v>181.8514775085929</v>
+        <v>181.8514775085926</v>
       </c>
       <c r="K30" t="n">
-        <v>348.3116373029839</v>
+        <v>348.3116373029835</v>
       </c>
       <c r="L30" t="n">
-        <v>510.1442793216688</v>
+        <v>572.1378646061673</v>
       </c>
       <c r="M30" t="n">
-        <v>771.3389293833785</v>
+        <v>833.3325146678768</v>
       </c>
       <c r="N30" t="n">
-        <v>1039.446624623284</v>
+        <v>1101.440209907782</v>
       </c>
       <c r="O30" t="n">
-        <v>1284.712786677941</v>
+        <v>1346.706371962439</v>
       </c>
       <c r="P30" t="n">
-        <v>1481.560504773609</v>
+        <v>1481.56050477361</v>
       </c>
       <c r="Q30" t="n">
         <v>1613.147991278647</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>567.9931514352786</v>
+        <v>923.0274043940195</v>
       </c>
       <c r="C31" t="n">
-        <v>395.4314399185035</v>
+        <v>750.4656928772445</v>
       </c>
       <c r="D31" t="n">
-        <v>395.4314399185035</v>
+        <v>584.5877000787672</v>
       </c>
       <c r="E31" t="n">
-        <v>225.6734361692407</v>
+        <v>584.5877000787672</v>
       </c>
       <c r="F31" t="n">
-        <v>48.96638213099695</v>
+        <v>407.8806460405234</v>
       </c>
       <c r="G31" t="n">
-        <v>48.96638213099695</v>
+        <v>243.1711510495074</v>
       </c>
       <c r="H31" t="n">
-        <v>48.96638213099695</v>
+        <v>111.1088024083089</v>
       </c>
       <c r="I31" t="n">
-        <v>48.96638213099695</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="J31" t="n">
-        <v>110.0676242284527</v>
+        <v>110.0676242284526</v>
       </c>
       <c r="K31" t="n">
-        <v>210.4757345544762</v>
+        <v>485.2341891256115</v>
       </c>
       <c r="L31" t="n">
-        <v>542.2681845220136</v>
+        <v>1031.931882808423</v>
       </c>
       <c r="M31" t="n">
-        <v>1137.224434046559</v>
+        <v>1167.404265152055</v>
       </c>
       <c r="N31" t="n">
-        <v>1711.734389091368</v>
+        <v>1299.655417039219</v>
       </c>
       <c r="O31" t="n">
-        <v>2253.558982554161</v>
+        <v>1841.480010502012</v>
       </c>
       <c r="P31" t="n">
-        <v>2358.083982536744</v>
+        <v>2293.511904454937</v>
       </c>
       <c r="Q31" t="n">
-        <v>2430.451674572191</v>
+        <v>2430.451674572188</v>
       </c>
       <c r="R31" t="n">
-        <v>2448.319106549848</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="S31" t="n">
-        <v>2304.444758099761</v>
+        <v>2388.751202047731</v>
       </c>
       <c r="T31" t="n">
-        <v>2069.990011706927</v>
+        <v>2146.639361008764</v>
       </c>
       <c r="U31" t="n">
-        <v>1791.605108050023</v>
+        <v>2146.639361008764</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.649599920454</v>
+        <v>1859.683852879194</v>
       </c>
       <c r="W31" t="n">
-        <v>1232.623195506745</v>
+        <v>1587.657448465486</v>
       </c>
       <c r="X31" t="n">
-        <v>987.2314408401576</v>
+        <v>1342.265693798898</v>
       </c>
       <c r="Y31" t="n">
-        <v>759.8117701542658</v>
+        <v>1114.846023113007</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>789.735494354937</v>
+        <v>1194.590948943901</v>
       </c>
       <c r="C32" t="n">
-        <v>789.735494354937</v>
+        <v>1194.590948943901</v>
       </c>
       <c r="D32" t="n">
-        <v>789.735494354937</v>
+        <v>1194.590948943901</v>
       </c>
       <c r="E32" t="n">
-        <v>355.9607495132322</v>
+        <v>760.816204102196</v>
       </c>
       <c r="F32" t="n">
-        <v>48.96638213099695</v>
+        <v>332.9487745114038</v>
       </c>
       <c r="G32" t="n">
-        <v>48.96638213099695</v>
+        <v>48.96638213099689</v>
       </c>
       <c r="H32" t="n">
-        <v>48.96638213099695</v>
+        <v>48.96638213099689</v>
       </c>
       <c r="I32" t="n">
-        <v>122.8353788882625</v>
+        <v>122.8353788882622</v>
       </c>
       <c r="J32" t="n">
-        <v>286.3580891786137</v>
+        <v>286.3580891786133</v>
       </c>
       <c r="K32" t="n">
-        <v>531.4362430141196</v>
+        <v>531.4362430141188</v>
       </c>
       <c r="L32" t="n">
-        <v>835.4773641398456</v>
+        <v>835.4773641398444</v>
       </c>
       <c r="M32" t="n">
-        <v>1173.781693844503</v>
+        <v>1173.781693844501</v>
       </c>
       <c r="N32" t="n">
-        <v>1517.560141290068</v>
+        <v>1517.560141290066</v>
       </c>
       <c r="O32" t="n">
-        <v>1842.180380803857</v>
+        <v>1842.180380803854</v>
       </c>
       <c r="P32" t="n">
-        <v>2119.236244874201</v>
+        <v>2119.236244874198</v>
       </c>
       <c r="Q32" t="n">
-        <v>2327.29366051646</v>
+        <v>2327.293660516456</v>
       </c>
       <c r="R32" t="n">
-        <v>2448.319106549848</v>
+        <v>2448.319106549844</v>
       </c>
       <c r="S32" t="n">
-        <v>2448.319106549848</v>
+        <v>2448.319106549844</v>
       </c>
       <c r="T32" t="n">
-        <v>2448.319106549848</v>
+        <v>2448.319106549844</v>
       </c>
       <c r="U32" t="n">
-        <v>2448.319106549848</v>
+        <v>2448.319106549844</v>
       </c>
       <c r="V32" t="n">
-        <v>2448.319106549848</v>
+        <v>2448.319106549844</v>
       </c>
       <c r="W32" t="n">
-        <v>2043.463651960881</v>
+        <v>2448.319106549844</v>
       </c>
       <c r="X32" t="n">
-        <v>1624.321188540192</v>
+        <v>2029.176643129155</v>
       </c>
       <c r="Y32" t="n">
-        <v>1216.035064839845</v>
+        <v>1620.890519428809</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1315.096129917311</v>
+        <v>543.9283289316144</v>
       </c>
       <c r="C33" t="n">
-        <v>1208.639668753953</v>
+        <v>437.4718677682566</v>
       </c>
       <c r="D33" t="n">
-        <v>1113.549379900507</v>
+        <v>342.3815789148099</v>
       </c>
       <c r="E33" t="n">
-        <v>1019.42896522746</v>
+        <v>248.2611642417636</v>
       </c>
       <c r="F33" t="n">
-        <v>936.045126843622</v>
+        <v>164.8773258579252</v>
       </c>
       <c r="G33" t="n">
-        <v>851.7118206437458</v>
+        <v>80.54401965804901</v>
       </c>
       <c r="H33" t="n">
-        <v>820.1341831166937</v>
+        <v>48.96638213099689</v>
       </c>
       <c r="I33" t="n">
-        <v>855.6262724880703</v>
+        <v>84.45847150237337</v>
       </c>
       <c r="J33" t="n">
-        <v>953.0192784942897</v>
+        <v>181.8514775085926</v>
       </c>
       <c r="K33" t="n">
-        <v>1119.479438288681</v>
+        <v>348.3116373029834</v>
       </c>
       <c r="L33" t="n">
-        <v>1343.305665591865</v>
+        <v>572.1378646061673</v>
       </c>
       <c r="M33" t="n">
-        <v>1604.500315653575</v>
+        <v>833.3325146678768</v>
       </c>
       <c r="N33" t="n">
-        <v>1872.60801089348</v>
+        <v>1101.440209907782</v>
       </c>
       <c r="O33" t="n">
-        <v>2117.874172948138</v>
+        <v>1346.706371962439</v>
       </c>
       <c r="P33" t="n">
-        <v>2314.721891043805</v>
+        <v>1543.554090058107</v>
       </c>
       <c r="Q33" t="n">
-        <v>2446.309377548843</v>
+        <v>1613.147991278647</v>
       </c>
       <c r="R33" t="n">
-        <v>2448.319106549848</v>
+        <v>1677.151305564151</v>
       </c>
       <c r="S33" t="n">
-        <v>2404.400086832597</v>
+        <v>1633.2322858469</v>
       </c>
       <c r="T33" t="n">
-        <v>2278.460868898685</v>
+        <v>1507.293067912987</v>
       </c>
       <c r="U33" t="n">
-        <v>2102.19351818378</v>
+        <v>1331.025717198083</v>
       </c>
       <c r="V33" t="n">
-        <v>1903.07600024578</v>
+        <v>1131.908199260083</v>
       </c>
       <c r="W33" t="n">
-        <v>1717.753245978974</v>
+        <v>946.5854449932767</v>
       </c>
       <c r="X33" t="n">
-        <v>1562.885810217854</v>
+        <v>791.7180092321568</v>
       </c>
       <c r="Y33" t="n">
-        <v>1436.400030997074</v>
+        <v>665.2322300113775</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>960.7230595020837</v>
+        <v>743.5166425882634</v>
       </c>
       <c r="C34" t="n">
-        <v>788.1613479853087</v>
+        <v>743.5166425882634</v>
       </c>
       <c r="D34" t="n">
-        <v>622.2833551868314</v>
+        <v>577.6386497897861</v>
       </c>
       <c r="E34" t="n">
-        <v>452.5253514375687</v>
+        <v>407.8806460405234</v>
       </c>
       <c r="F34" t="n">
-        <v>275.8182973993249</v>
+        <v>407.8806460405234</v>
       </c>
       <c r="G34" t="n">
-        <v>111.1088024083089</v>
+        <v>243.1711510495074</v>
       </c>
       <c r="H34" t="n">
         <v>111.1088024083089</v>
       </c>
       <c r="I34" t="n">
-        <v>48.96638213099695</v>
+        <v>48.96638213099689</v>
       </c>
       <c r="J34" t="n">
-        <v>110.0676242284527</v>
+        <v>110.0676242284526</v>
       </c>
       <c r="K34" t="n">
-        <v>210.4757345544762</v>
+        <v>485.2341891256115</v>
       </c>
       <c r="L34" t="n">
-        <v>757.1734282372877</v>
+        <v>1031.931882808423</v>
       </c>
       <c r="M34" t="n">
-        <v>1352.129677761833</v>
+        <v>1167.404265152055</v>
       </c>
       <c r="N34" t="n">
-        <v>1926.639632806642</v>
+        <v>1299.655417039219</v>
       </c>
       <c r="O34" t="n">
-        <v>2253.558982554161</v>
+        <v>1841.480010502012</v>
       </c>
       <c r="P34" t="n">
-        <v>2358.083982536744</v>
+        <v>2293.511904454937</v>
       </c>
       <c r="Q34" t="n">
-        <v>2430.451674572191</v>
+        <v>2430.451674572188</v>
       </c>
       <c r="R34" t="n">
-        <v>2448.319106549848</v>
+        <v>2448.319106549844</v>
       </c>
       <c r="S34" t="n">
-        <v>2426.446857155795</v>
+        <v>2304.444758099758</v>
       </c>
       <c r="T34" t="n">
-        <v>2184.335016116828</v>
+        <v>2062.33291706079</v>
       </c>
       <c r="U34" t="n">
-        <v>2184.335016116828</v>
+        <v>1783.948013403886</v>
       </c>
       <c r="V34" t="n">
-        <v>1897.379507987259</v>
+        <v>1496.992505274316</v>
       </c>
       <c r="W34" t="n">
-        <v>1625.35310357355</v>
+        <v>1408.14668665973</v>
       </c>
       <c r="X34" t="n">
-        <v>1379.961348906963</v>
+        <v>1162.754931993142</v>
       </c>
       <c r="Y34" t="n">
-        <v>1152.541678221071</v>
+        <v>935.3352613072504</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2029.176643129158</v>
+        <v>1348.751029380071</v>
       </c>
       <c r="C35" t="n">
-        <v>1591.034170312582</v>
+        <v>910.6085565634939</v>
       </c>
       <c r="D35" t="n">
-        <v>1155.124385487026</v>
+        <v>910.6085565634939</v>
       </c>
       <c r="E35" t="n">
-        <v>721.3496406453214</v>
+        <v>476.8338117217892</v>
       </c>
       <c r="F35" t="n">
-        <v>293.4822110545292</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="G35" t="n">
-        <v>48.96638213099695</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="H35" t="n">
-        <v>48.96638213099695</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="I35" t="n">
         <v>122.8353788882622</v>
@@ -6940,49 +6940,49 @@
         <v>286.3580891786135</v>
       </c>
       <c r="K35" t="n">
-        <v>531.4362430141192</v>
+        <v>531.436243014119</v>
       </c>
       <c r="L35" t="n">
-        <v>835.4773641398452</v>
+        <v>835.4773641398447</v>
       </c>
       <c r="M35" t="n">
-        <v>1173.781693844502</v>
+        <v>1173.781693844501</v>
       </c>
       <c r="N35" t="n">
-        <v>1517.560141290068</v>
+        <v>1517.560141290066</v>
       </c>
       <c r="O35" t="n">
-        <v>1842.180380803856</v>
+        <v>1842.180380803855</v>
       </c>
       <c r="P35" t="n">
-        <v>2119.236244874201</v>
+        <v>2119.236244874199</v>
       </c>
       <c r="Q35" t="n">
-        <v>2327.293660516459</v>
+        <v>2327.293660516457</v>
       </c>
       <c r="R35" t="n">
-        <v>2448.319106549848</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="S35" t="n">
-        <v>2448.319106549848</v>
+        <v>2409.462380959786</v>
       </c>
       <c r="T35" t="n">
-        <v>2448.319106549848</v>
+        <v>2409.462380959786</v>
       </c>
       <c r="U35" t="n">
-        <v>2448.319106549848</v>
+        <v>2409.462380959786</v>
       </c>
       <c r="V35" t="n">
-        <v>2448.319106549848</v>
+        <v>2409.462380959786</v>
       </c>
       <c r="W35" t="n">
-        <v>2448.319106549848</v>
+        <v>2194.193063285667</v>
       </c>
       <c r="X35" t="n">
-        <v>2029.176643129158</v>
+        <v>1775.050599864978</v>
       </c>
       <c r="Y35" t="n">
-        <v>2029.176643129158</v>
+        <v>1775.050599864978</v>
       </c>
     </row>
     <row r="36">
@@ -6995,43 +6995,43 @@
         <v>543.9283289316144</v>
       </c>
       <c r="C36" t="n">
-        <v>437.4718677682567</v>
+        <v>437.4718677682566</v>
       </c>
       <c r="D36" t="n">
         <v>342.3815789148099</v>
       </c>
       <c r="E36" t="n">
-        <v>248.2611642417637</v>
+        <v>248.2611642417636</v>
       </c>
       <c r="F36" t="n">
-        <v>164.8773258579253</v>
+        <v>164.8773258579252</v>
       </c>
       <c r="G36" t="n">
-        <v>80.54401965804905</v>
+        <v>80.54401965804901</v>
       </c>
       <c r="H36" t="n">
-        <v>48.96638213099695</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="I36" t="n">
-        <v>84.45847150237348</v>
+        <v>84.4584715023734</v>
       </c>
       <c r="J36" t="n">
-        <v>181.8514775085929</v>
+        <v>119.8578922240954</v>
       </c>
       <c r="K36" t="n">
-        <v>348.3116373029839</v>
+        <v>286.3180520184862</v>
       </c>
       <c r="L36" t="n">
-        <v>572.137864606168</v>
+        <v>510.1442793216701</v>
       </c>
       <c r="M36" t="n">
-        <v>833.3325146678777</v>
+        <v>771.3389293833797</v>
       </c>
       <c r="N36" t="n">
-        <v>1101.440209907783</v>
+        <v>1039.446624623285</v>
       </c>
       <c r="O36" t="n">
-        <v>1284.712786677941</v>
+        <v>1284.712786677942</v>
       </c>
       <c r="P36" t="n">
         <v>1481.560504773609</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1092.785408143282</v>
+        <v>560.3360567891425</v>
       </c>
       <c r="C37" t="n">
-        <v>920.2236966265071</v>
+        <v>387.7743452723674</v>
       </c>
       <c r="D37" t="n">
-        <v>754.3457038280299</v>
+        <v>221.8963524738901</v>
       </c>
       <c r="E37" t="n">
-        <v>584.5877000787672</v>
+        <v>213.6758771220128</v>
       </c>
       <c r="F37" t="n">
-        <v>407.8806460405234</v>
+        <v>213.6758771220128</v>
       </c>
       <c r="G37" t="n">
-        <v>243.1711510495074</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="H37" t="n">
-        <v>111.1088024083089</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="I37" t="n">
-        <v>48.96638213099695</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="J37" t="n">
-        <v>196.6473093931426</v>
+        <v>196.6473093931424</v>
       </c>
       <c r="K37" t="n">
-        <v>571.8138742903016</v>
+        <v>571.8138742903013</v>
       </c>
       <c r="L37" t="n">
-        <v>700.301686205152</v>
+        <v>700.3016862051517</v>
       </c>
       <c r="M37" t="n">
         <v>1295.257935729697</v>
       </c>
       <c r="N37" t="n">
-        <v>1427.509087616862</v>
+        <v>1869.767890774505</v>
       </c>
       <c r="O37" t="n">
-        <v>1737.859313719487</v>
+        <v>1991.923235011517</v>
       </c>
       <c r="P37" t="n">
-        <v>2189.891207672413</v>
+        <v>2189.89120767241</v>
       </c>
       <c r="Q37" t="n">
-        <v>2430.451674572191</v>
+        <v>2430.451674572188</v>
       </c>
       <c r="R37" t="n">
-        <v>2448.319106549848</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="S37" t="n">
-        <v>2448.319106549848</v>
+        <v>2304.444758099758</v>
       </c>
       <c r="T37" t="n">
-        <v>2206.20726551088</v>
+        <v>2062.332917060791</v>
       </c>
       <c r="U37" t="n">
-        <v>2206.20726551088</v>
+        <v>1783.948013403887</v>
       </c>
       <c r="V37" t="n">
-        <v>2029.441856628457</v>
+        <v>1496.992505274317</v>
       </c>
       <c r="W37" t="n">
-        <v>1757.415452214749</v>
+        <v>1224.966100860609</v>
       </c>
       <c r="X37" t="n">
-        <v>1512.023697548161</v>
+        <v>979.5743461940215</v>
       </c>
       <c r="Y37" t="n">
-        <v>1284.604026862269</v>
+        <v>752.1546755081297</v>
       </c>
     </row>
     <row r="38">
@@ -7156,70 +7156,70 @@
         <v>1346.51834138905</v>
       </c>
       <c r="D38" t="n">
-        <v>910.6085565634941</v>
+        <v>910.6085565634939</v>
       </c>
       <c r="E38" t="n">
         <v>476.8338117217892</v>
       </c>
       <c r="F38" t="n">
-        <v>48.96638213099695</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="G38" t="n">
-        <v>48.96638213099695</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="H38" t="n">
-        <v>48.96638213099695</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="I38" t="n">
-        <v>122.8353788882625</v>
+        <v>122.8353788882626</v>
       </c>
       <c r="J38" t="n">
-        <v>286.3580891786137</v>
+        <v>286.3580891786136</v>
       </c>
       <c r="K38" t="n">
-        <v>531.4362430141196</v>
+        <v>531.4362430141192</v>
       </c>
       <c r="L38" t="n">
-        <v>835.4773641398456</v>
+        <v>835.477364139845</v>
       </c>
       <c r="M38" t="n">
-        <v>1173.781693844503</v>
+        <v>1173.781693844502</v>
       </c>
       <c r="N38" t="n">
-        <v>1517.560141290068</v>
+        <v>1517.560141290067</v>
       </c>
       <c r="O38" t="n">
-        <v>1842.180380803857</v>
+        <v>1842.180380803855</v>
       </c>
       <c r="P38" t="n">
-        <v>2119.236244874201</v>
+        <v>2119.236244874198</v>
       </c>
       <c r="Q38" t="n">
-        <v>2327.29366051646</v>
+        <v>2327.293660516456</v>
       </c>
       <c r="R38" t="n">
-        <v>2448.319106549848</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="S38" t="n">
-        <v>2448.319106549848</v>
+        <v>2409.462380959786</v>
       </c>
       <c r="T38" t="n">
-        <v>2448.319106549848</v>
+        <v>2409.462380959786</v>
       </c>
       <c r="U38" t="n">
-        <v>2448.319106549848</v>
+        <v>2409.462380959786</v>
       </c>
       <c r="V38" t="n">
-        <v>2448.319106549848</v>
+        <v>2409.462380959786</v>
       </c>
       <c r="W38" t="n">
-        <v>2448.319106549848</v>
+        <v>2409.462380959786</v>
       </c>
       <c r="X38" t="n">
-        <v>2448.319106549848</v>
+        <v>2210.960384690534</v>
       </c>
       <c r="Y38" t="n">
-        <v>2040.032982849501</v>
+        <v>2210.960384690534</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1315.096129917311</v>
+        <v>543.9283289316144</v>
       </c>
       <c r="C39" t="n">
-        <v>1208.639668753953</v>
+        <v>437.4718677682566</v>
       </c>
       <c r="D39" t="n">
-        <v>1113.549379900507</v>
+        <v>342.3815789148099</v>
       </c>
       <c r="E39" t="n">
-        <v>1019.42896522746</v>
+        <v>248.2611642417636</v>
       </c>
       <c r="F39" t="n">
-        <v>936.045126843622</v>
+        <v>164.8773258579252</v>
       </c>
       <c r="G39" t="n">
-        <v>851.7118206437458</v>
+        <v>80.54401965804902</v>
       </c>
       <c r="H39" t="n">
-        <v>820.1341831166937</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="I39" t="n">
-        <v>855.6262724880703</v>
+        <v>84.45847150237338</v>
       </c>
       <c r="J39" t="n">
-        <v>953.0192784942897</v>
+        <v>181.8514775085926</v>
       </c>
       <c r="K39" t="n">
-        <v>1119.479438288681</v>
+        <v>348.3116373029835</v>
       </c>
       <c r="L39" t="n">
-        <v>1343.305665591865</v>
+        <v>572.1378646061673</v>
       </c>
       <c r="M39" t="n">
-        <v>1604.500315653575</v>
+        <v>833.3325146678768</v>
       </c>
       <c r="N39" t="n">
-        <v>1872.60801089348</v>
+        <v>1101.440209907782</v>
       </c>
       <c r="O39" t="n">
-        <v>2117.874172948138</v>
+        <v>1346.706371962439</v>
       </c>
       <c r="P39" t="n">
-        <v>2314.721891043805</v>
+        <v>1481.56050477361</v>
       </c>
       <c r="Q39" t="n">
-        <v>2446.309377548843</v>
+        <v>1613.147991278647</v>
       </c>
       <c r="R39" t="n">
-        <v>2448.319106549848</v>
+        <v>1677.151305564151</v>
       </c>
       <c r="S39" t="n">
-        <v>2404.400086832597</v>
+        <v>1633.2322858469</v>
       </c>
       <c r="T39" t="n">
-        <v>2278.460868898685</v>
+        <v>1507.293067912987</v>
       </c>
       <c r="U39" t="n">
-        <v>2102.19351818378</v>
+        <v>1331.025717198083</v>
       </c>
       <c r="V39" t="n">
-        <v>1903.07600024578</v>
+        <v>1131.908199260083</v>
       </c>
       <c r="W39" t="n">
-        <v>1717.753245978974</v>
+        <v>946.5854449932767</v>
       </c>
       <c r="X39" t="n">
-        <v>1562.885810217854</v>
+        <v>791.7180092321568</v>
       </c>
       <c r="Y39" t="n">
-        <v>1436.400030997074</v>
+        <v>665.2322300113775</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>560.3360567891452</v>
+        <v>704.210405239229</v>
       </c>
       <c r="C40" t="n">
-        <v>387.7743452723702</v>
+        <v>531.6486937224539</v>
       </c>
       <c r="D40" t="n">
-        <v>221.8963524738928</v>
+        <v>395.4314399185034</v>
       </c>
       <c r="E40" t="n">
-        <v>52.13834872463011</v>
+        <v>225.6734361692407</v>
       </c>
       <c r="F40" t="n">
-        <v>52.13834872463011</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="G40" t="n">
-        <v>48.96638213099695</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="H40" t="n">
-        <v>48.96638213099695</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="I40" t="n">
-        <v>48.96638213099695</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="J40" t="n">
-        <v>110.0676242284527</v>
+        <v>110.0676242284526</v>
       </c>
       <c r="K40" t="n">
-        <v>210.4757345544762</v>
+        <v>485.2341891256115</v>
       </c>
       <c r="L40" t="n">
-        <v>542.2681845220136</v>
+        <v>1031.931882808423</v>
       </c>
       <c r="M40" t="n">
-        <v>1137.224434046559</v>
+        <v>1167.404265152055</v>
       </c>
       <c r="N40" t="n">
-        <v>1711.734389091368</v>
+        <v>1299.655417039219</v>
       </c>
       <c r="O40" t="n">
-        <v>2253.558982554161</v>
+        <v>1841.480010502012</v>
       </c>
       <c r="P40" t="n">
-        <v>2358.083982536744</v>
+        <v>2293.511904454937</v>
       </c>
       <c r="Q40" t="n">
-        <v>2430.451674572191</v>
+        <v>2430.451674572188</v>
       </c>
       <c r="R40" t="n">
-        <v>2448.319106549848</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="S40" t="n">
-        <v>2304.444758099761</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="T40" t="n">
-        <v>2062.332917060794</v>
+        <v>2206.207265510878</v>
       </c>
       <c r="U40" t="n">
-        <v>1783.94801340389</v>
+        <v>1927.822361853973</v>
       </c>
       <c r="V40" t="n">
-        <v>1496.99250527432</v>
+        <v>1640.866853724404</v>
       </c>
       <c r="W40" t="n">
-        <v>1224.966100860612</v>
+        <v>1368.840449310695</v>
       </c>
       <c r="X40" t="n">
-        <v>979.5743461940242</v>
+        <v>1123.448694644108</v>
       </c>
       <c r="Y40" t="n">
-        <v>752.1546755081324</v>
+        <v>896.0290239582162</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>48.96638213099695</v>
+        <v>965.7163018698221</v>
       </c>
       <c r="C41" t="n">
-        <v>48.96638213099695</v>
+        <v>717.396574976346</v>
       </c>
       <c r="D41" t="n">
-        <v>48.96638213099695</v>
+        <v>717.396574976346</v>
       </c>
       <c r="E41" t="n">
-        <v>48.96638213099695</v>
+        <v>717.396574976346</v>
       </c>
       <c r="F41" t="n">
-        <v>48.96638213099695</v>
+        <v>717.396574976346</v>
       </c>
       <c r="G41" t="n">
-        <v>48.96638213099695</v>
+        <v>317.9645208119458</v>
       </c>
       <c r="H41" t="n">
-        <v>48.96638213099695</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="I41" t="n">
         <v>122.8353788882625</v>
       </c>
       <c r="J41" t="n">
-        <v>286.3580891786137</v>
+        <v>286.3580891786135</v>
       </c>
       <c r="K41" t="n">
-        <v>531.4362430141196</v>
+        <v>531.436243014119</v>
       </c>
       <c r="L41" t="n">
-        <v>835.4773641398456</v>
+        <v>835.4773641398447</v>
       </c>
       <c r="M41" t="n">
-        <v>1173.781693844503</v>
+        <v>1173.781693844501</v>
       </c>
       <c r="N41" t="n">
-        <v>1517.560141290068</v>
+        <v>1517.560141290066</v>
       </c>
       <c r="O41" t="n">
-        <v>1842.180380803857</v>
+        <v>1842.180380803855</v>
       </c>
       <c r="P41" t="n">
-        <v>2119.236244874201</v>
+        <v>2119.236244874198</v>
       </c>
       <c r="Q41" t="n">
-        <v>2327.29366051646</v>
+        <v>2327.293660516456</v>
       </c>
       <c r="R41" t="n">
-        <v>2448.319106549848</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="S41" t="n">
-        <v>2409.462380959789</v>
+        <v>2409.462380959786</v>
       </c>
       <c r="T41" t="n">
-        <v>2198.000343579828</v>
+        <v>2198.000343579825</v>
       </c>
       <c r="U41" t="n">
-        <v>1938.935303073831</v>
+        <v>2198.000343579825</v>
       </c>
       <c r="V41" t="n">
-        <v>1576.318353007658</v>
+        <v>2198.000343579825</v>
       </c>
       <c r="W41" t="n">
-        <v>1171.462898418691</v>
+        <v>1793.144888990858</v>
       </c>
       <c r="X41" t="n">
-        <v>752.3204349980018</v>
+        <v>1374.002425570169</v>
       </c>
       <c r="Y41" t="n">
-        <v>344.0343112976552</v>
+        <v>965.7163018698221</v>
       </c>
     </row>
     <row r="42">
@@ -7469,46 +7469,46 @@
         <v>543.9283289316144</v>
       </c>
       <c r="C42" t="n">
-        <v>437.4718677682567</v>
+        <v>437.4718677682566</v>
       </c>
       <c r="D42" t="n">
         <v>342.3815789148099</v>
       </c>
       <c r="E42" t="n">
-        <v>248.2611642417637</v>
+        <v>248.2611642417636</v>
       </c>
       <c r="F42" t="n">
-        <v>164.8773258579253</v>
+        <v>164.8773258579252</v>
       </c>
       <c r="G42" t="n">
-        <v>80.54401965804905</v>
+        <v>80.54401965804902</v>
       </c>
       <c r="H42" t="n">
-        <v>48.96638213099695</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="I42" t="n">
-        <v>84.45847150237348</v>
+        <v>84.45847150237338</v>
       </c>
       <c r="J42" t="n">
-        <v>181.8514775085929</v>
+        <v>181.8514775085926</v>
       </c>
       <c r="K42" t="n">
-        <v>348.3116373029839</v>
+        <v>348.3116373029835</v>
       </c>
       <c r="L42" t="n">
-        <v>572.137864606168</v>
+        <v>572.1378646061673</v>
       </c>
       <c r="M42" t="n">
-        <v>833.3325146678777</v>
+        <v>833.3325146678768</v>
       </c>
       <c r="N42" t="n">
-        <v>1101.440209907783</v>
+        <v>1101.440209907782</v>
       </c>
       <c r="O42" t="n">
-        <v>1346.706371962441</v>
+        <v>1346.706371962439</v>
       </c>
       <c r="P42" t="n">
-        <v>1543.554090058108</v>
+        <v>1543.554090058107</v>
       </c>
       <c r="Q42" t="n">
         <v>1613.147991278647</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>704.2104052392317</v>
+        <v>928.0759131522664</v>
       </c>
       <c r="C43" t="n">
-        <v>531.6486937224566</v>
+        <v>755.5142016354913</v>
       </c>
       <c r="D43" t="n">
-        <v>457.5738601958155</v>
+        <v>589.636208837014</v>
       </c>
       <c r="E43" t="n">
-        <v>287.8158564465527</v>
+        <v>419.8782050877512</v>
       </c>
       <c r="F43" t="n">
-        <v>111.1088024083089</v>
+        <v>243.1711510495074</v>
       </c>
       <c r="G43" t="n">
-        <v>111.1088024083089</v>
+        <v>243.1711510495074</v>
       </c>
       <c r="H43" t="n">
         <v>111.1088024083089</v>
       </c>
       <c r="I43" t="n">
-        <v>48.96638213099695</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="J43" t="n">
-        <v>110.0676242284527</v>
+        <v>110.0676242284526</v>
       </c>
       <c r="K43" t="n">
-        <v>210.4757345544762</v>
+        <v>485.2341891256115</v>
       </c>
       <c r="L43" t="n">
-        <v>654.2451577325846</v>
+        <v>1031.931882808423</v>
       </c>
       <c r="M43" t="n">
-        <v>789.7175400762171</v>
+        <v>1167.404265152055</v>
       </c>
       <c r="N43" t="n">
-        <v>1364.227495121026</v>
+        <v>1299.655417039219</v>
       </c>
       <c r="O43" t="n">
-        <v>1906.052088583819</v>
+        <v>1841.480010502012</v>
       </c>
       <c r="P43" t="n">
-        <v>2358.083982536744</v>
+        <v>2293.511904454937</v>
       </c>
       <c r="Q43" t="n">
-        <v>2430.451674572191</v>
+        <v>2430.451674572188</v>
       </c>
       <c r="R43" t="n">
-        <v>2448.319106549848</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="S43" t="n">
-        <v>2448.319106549848</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="T43" t="n">
-        <v>2206.20726551088</v>
+        <v>2430.072773423915</v>
       </c>
       <c r="U43" t="n">
-        <v>1927.822361853976</v>
+        <v>2151.687869767011</v>
       </c>
       <c r="V43" t="n">
-        <v>1640.866853724407</v>
+        <v>1864.732361637441</v>
       </c>
       <c r="W43" t="n">
-        <v>1368.840449310698</v>
+        <v>1592.705957223733</v>
       </c>
       <c r="X43" t="n">
-        <v>1123.448694644111</v>
+        <v>1347.314202557145</v>
       </c>
       <c r="Y43" t="n">
-        <v>896.0290239582189</v>
+        <v>1119.894531871254</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>48.96638213099696</v>
+        <v>876.2658658861894</v>
       </c>
       <c r="C44" t="n">
-        <v>48.96638213099696</v>
+        <v>876.2658658861894</v>
       </c>
       <c r="D44" t="n">
-        <v>48.96638213099696</v>
+        <v>876.2658658861894</v>
       </c>
       <c r="E44" t="n">
-        <v>48.96638213099696</v>
+        <v>876.2658658861894</v>
       </c>
       <c r="F44" t="n">
-        <v>48.96638213099696</v>
+        <v>448.3984362953971</v>
       </c>
       <c r="G44" t="n">
-        <v>48.96638213099696</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="H44" t="n">
-        <v>48.96638213099696</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="I44" t="n">
-        <v>122.8353788882626</v>
+        <v>122.8353788882622</v>
       </c>
       <c r="J44" t="n">
-        <v>286.358089178614</v>
+        <v>286.3580891786135</v>
       </c>
       <c r="K44" t="n">
-        <v>531.4362430141198</v>
+        <v>531.436243014119</v>
       </c>
       <c r="L44" t="n">
-        <v>835.4773641398459</v>
+        <v>835.4773641398448</v>
       </c>
       <c r="M44" t="n">
-        <v>1173.781693844503</v>
+        <v>1173.781693844501</v>
       </c>
       <c r="N44" t="n">
-        <v>1517.560141290069</v>
+        <v>1517.560141290066</v>
       </c>
       <c r="O44" t="n">
-        <v>1842.180380803857</v>
+        <v>1842.180380803855</v>
       </c>
       <c r="P44" t="n">
-        <v>2119.236244874201</v>
+        <v>2119.236244874199</v>
       </c>
       <c r="Q44" t="n">
-        <v>2327.29366051646</v>
+        <v>2327.293660516457</v>
       </c>
       <c r="R44" t="n">
-        <v>2448.319106549848</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="S44" t="n">
-        <v>2448.319106549848</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="T44" t="n">
-        <v>2329.231984898077</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="U44" t="n">
-        <v>2070.166944392081</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="V44" t="n">
-        <v>1707.549994325907</v>
+        <v>2085.702156483671</v>
       </c>
       <c r="W44" t="n">
-        <v>1302.694539736941</v>
+        <v>1680.846701894705</v>
       </c>
       <c r="X44" t="n">
-        <v>883.5520763162514</v>
+        <v>1680.846701894705</v>
       </c>
       <c r="Y44" t="n">
-        <v>475.2659526159048</v>
+        <v>1302.565436371097</v>
       </c>
     </row>
     <row r="45">
@@ -7706,46 +7706,46 @@
         <v>543.9283289316144</v>
       </c>
       <c r="C45" t="n">
-        <v>437.4718677682567</v>
+        <v>437.4718677682566</v>
       </c>
       <c r="D45" t="n">
         <v>342.3815789148099</v>
       </c>
       <c r="E45" t="n">
-        <v>248.2611642417637</v>
+        <v>248.2611642417636</v>
       </c>
       <c r="F45" t="n">
-        <v>164.8773258579253</v>
+        <v>164.8773258579252</v>
       </c>
       <c r="G45" t="n">
-        <v>80.54401965804907</v>
+        <v>80.54401965804901</v>
       </c>
       <c r="H45" t="n">
-        <v>48.96638213099696</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="I45" t="n">
-        <v>48.96638213099696</v>
+        <v>84.4584715023734</v>
       </c>
       <c r="J45" t="n">
-        <v>146.3593881372163</v>
+        <v>181.8514775085926</v>
       </c>
       <c r="K45" t="n">
-        <v>312.8195479316075</v>
+        <v>348.3116373029835</v>
       </c>
       <c r="L45" t="n">
-        <v>536.6457752347916</v>
+        <v>572.1378646061675</v>
       </c>
       <c r="M45" t="n">
-        <v>797.8404252965014</v>
+        <v>833.3325146678769</v>
       </c>
       <c r="N45" t="n">
-        <v>1065.948120536407</v>
+        <v>1101.440209907782</v>
       </c>
       <c r="O45" t="n">
-        <v>1311.214282591065</v>
+        <v>1346.706371962439</v>
       </c>
       <c r="P45" t="n">
-        <v>1508.062000686733</v>
+        <v>1481.560504773609</v>
       </c>
       <c r="Q45" t="n">
         <v>1613.147991278647</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9074153448049</v>
+        <v>946.322246278196</v>
       </c>
       <c r="C46" t="n">
-        <v>754.3457038280299</v>
+        <v>773.7605347614209</v>
       </c>
       <c r="D46" t="n">
-        <v>754.3457038280299</v>
+        <v>607.8825419629436</v>
       </c>
       <c r="E46" t="n">
-        <v>584.5877000787672</v>
+        <v>522.4452798014552</v>
       </c>
       <c r="F46" t="n">
-        <v>407.8806460405234</v>
+        <v>345.7382257632114</v>
       </c>
       <c r="G46" t="n">
-        <v>243.1711510495074</v>
+        <v>181.0287307721954</v>
       </c>
       <c r="H46" t="n">
-        <v>111.1088024083089</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="I46" t="n">
-        <v>48.96638213099696</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="J46" t="n">
-        <v>110.0676242284527</v>
+        <v>110.0676242284526</v>
       </c>
       <c r="K46" t="n">
-        <v>485.2341891256117</v>
+        <v>485.2341891256115</v>
       </c>
       <c r="L46" t="n">
         <v>1031.931882808423</v>
       </c>
       <c r="M46" t="n">
-        <v>1167.404265152056</v>
+        <v>1167.404265152055</v>
       </c>
       <c r="N46" t="n">
-        <v>1299.65541703922</v>
+        <v>1299.655417039219</v>
       </c>
       <c r="O46" t="n">
-        <v>1841.480010502013</v>
+        <v>1841.480010502012</v>
       </c>
       <c r="P46" t="n">
-        <v>2293.511904454939</v>
+        <v>2293.511904454937</v>
       </c>
       <c r="Q46" t="n">
-        <v>2430.451674572191</v>
+        <v>2430.451674572188</v>
       </c>
       <c r="R46" t="n">
-        <v>2448.319106549848</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="S46" t="n">
-        <v>2448.319106549848</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="T46" t="n">
-        <v>2206.207265510881</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="U46" t="n">
-        <v>1927.822361853977</v>
+        <v>2169.93420289294</v>
       </c>
       <c r="V46" t="n">
-        <v>1863.56386382998</v>
+        <v>1882.978694763371</v>
       </c>
       <c r="W46" t="n">
-        <v>1591.537459416271</v>
+        <v>1610.952290349662</v>
       </c>
       <c r="X46" t="n">
-        <v>1346.145704749684</v>
+        <v>1365.560535683075</v>
       </c>
       <c r="Y46" t="n">
-        <v>1118.726034063792</v>
+        <v>1138.140864997183</v>
       </c>
     </row>
   </sheetData>
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>11.14042390876191</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>21.75440028723776</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>36.94091896479665</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8613,25 +8613,25 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>7.480552963322648</v>
+        <v>34.45295969778792</v>
       </c>
       <c r="L10" t="n">
-        <v>32.53395007869804</v>
+        <v>0.043987987274825</v>
       </c>
       <c r="M10" t="n">
-        <v>32.05661388637267</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>32.96672057477704</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>34.17160518172662</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>36.36928463638102</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8853,10 +8853,10 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>156.7304232042861</v>
+        <v>263.871624324937</v>
       </c>
       <c r="M13" t="n">
-        <v>458.1582657371569</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -8865,7 +8865,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -9084,19 +9084,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>10.62967161639949</v>
       </c>
       <c r="N16" t="n">
-        <v>175.7179764032071</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>423.9083325512944</v>
@@ -9105,7 +9105,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9321,16 +9321,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>69.27619576520601</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>263.871624324937</v>
       </c>
       <c r="M19" t="n">
-        <v>458.1582657371571</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
@@ -9339,7 +9339,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -9558,22 +9558,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>69.27619576520635</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>458.1582657371572</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512944</v>
+        <v>158.2045317475395</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>35.46652847308363</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>401.6784264069672</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10038,16 +10038,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>231.786734624812</v>
       </c>
       <c r="N28" t="n">
-        <v>230.3126260815609</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>351.0170646165068</v>
@@ -10272,25 +10272,25 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>205.3582202552394</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>65.22432129475237</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10509,25 +10509,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>206.8323287984927</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>65.22432129475192</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10755,13 +10755,13 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>190.0958402682968</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>351.0170646165068</v>
+        <v>94.38684108920143</v>
       </c>
       <c r="Q37" t="n">
         <v>169.8916917821538</v>
@@ -10983,25 +10983,25 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>205.3582202552394</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>65.22432129475237</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11220,16 +11220,16 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>318.4662740032909</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>423.9083325512944</v>
@@ -11238,7 +11238,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>65.22432129475237</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11475,7 +11475,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>65.22432129475374</v>
+        <v>65.22432129475237</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23263,16 +23263,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>79.15519915458344</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>333.8635066848724</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -23323,10 +23323,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>24.26825404222461</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.9822731108078</v>
+        <v>93.375623957738</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>309.4322344798506</v>
+        <v>322.4430888602216</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -23673,7 +23673,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>257.8515264887133</v>
+        <v>95.1703862077959</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -23734,7 +23734,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -23746,10 +23746,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>189.2287964706117</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23785,7 +23785,7 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
         <v>256.4799845637012</v>
@@ -23797,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>137.6163715458898</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>43.09606860372185</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>80.49110833120037</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23974,7 +23974,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>36.78561819584519</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24022,7 +24022,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>256.4799845637012</v>
@@ -24031,13 +24031,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>226.4431466003406</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144773</v>
+        <v>124.897688927716</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811442</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,13 +24180,13 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
-        <v>113.7438090910198</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24208,16 +24208,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>395.4377336227562</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>38.46815833415823</v>
+        <v>38.46815833415829</v>
       </c>
       <c r="T23" t="n">
-        <v>209.3474170061614</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4743901009363</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24271,10 +24271,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>335.2126770436026</v>
+        <v>384.5452393098214</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>171.2376587067771</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>29.36413160458201</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.0624000411058</v>
       </c>
       <c r="H25" t="n">
         <v>130.7417251547865</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>61.52099607453887</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>142.4356049655858</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24451,16 +24451,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>131.3888048948263</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>395.4377336227562</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>266.3081572941393</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,19 +24493,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>38.46815833415829</v>
       </c>
       <c r="T26" t="n">
         <v>209.3474170061614</v>
       </c>
       <c r="U26" t="n">
-        <v>219.8342132383787</v>
+        <v>256.4743901009363</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.47753417189392</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>61.52099607453884</v>
+        <v>61.52099607453887</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,10 +24654,10 @@
         <v>142.4356049655858</v>
       </c>
       <c r="T28" t="n">
-        <v>239.6907226285777</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6010546203353</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>47.56720218013865</v>
       </c>
     </row>
     <row r="29">
@@ -24679,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>188.1072078803483</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
         <v>395.4377336227562</v>
@@ -24733,19 +24733,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>209.3474170061614</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4743901009363</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>218.43406247992</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.0624000411058</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>130.7417251547865</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>61.52099607453884</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>83.46337950849312</v>
       </c>
       <c r="T31" t="n">
-        <v>7.580523699672199</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6010546203353</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24928,10 +24928,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>119.6643315864715</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>395.4377336227562</v>
+        <v>114.2951651661534</v>
       </c>
       <c r="H32" t="n">
         <v>266.3081572941393</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>38.46815833415823</v>
+        <v>38.46815833415829</v>
       </c>
       <c r="T32" t="n">
         <v>209.3474170061614</v>
@@ -24979,7 +24979,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25086,13 +25086,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>130.7417251547865</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25125,19 +25125,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>120.7820780654741</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6010546203353</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>181.3487799411305</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>153.3670629884593</v>
+        <v>395.4377336227562</v>
       </c>
       <c r="H35" t="n">
         <v>266.3081572941393</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>38.46815833415823</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>209.3474170061614</v>
@@ -25216,7 +25216,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>187.6902755456996</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.9221531134116</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>130.7417251547865</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>61.52099607453887</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,16 +25362,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.4356049655858</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6010546203353</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>109.0881982546748</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>169.2181278226226</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>38.46815833415823</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>209.3474170061614</v>
@@ -25456,10 +25456,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>218.4340624799227</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>29.36413160458156</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>159.922153113409</v>
+        <v>163.0624000411058</v>
       </c>
       <c r="H40" t="n">
         <v>130.7417251547865</v>
       </c>
       <c r="I40" t="n">
-        <v>61.52099607453884</v>
+        <v>61.52099607453887</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.4356049655858</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>129.919324905067</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>187.9245184638695</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -25642,10 +25642,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>395.4377336227562</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>266.3081572941393</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25684,10 +25684,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4743901009363</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>90.88512767911779</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>163.0624000411058</v>
       </c>
       <c r="H43" t="n">
-        <v>130.7417251547865</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>142.4356049655858</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.6268528339074</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25876,10 +25876,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>395.4377336227562</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>266.3081572941393</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>38.46815833415823</v>
+        <v>38.46815833415828</v>
       </c>
       <c r="T44" t="n">
-        <v>91.45116657090834</v>
+        <v>209.3474170061614</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4743901009363</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25930,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>29.70480959497189</v>
       </c>
     </row>
     <row r="45">
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>83.47753417189656</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>61.52099607453887</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,13 +26076,13 @@
         <v>142.4356049655858</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>239.6907226285777</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>220.4700400045169</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>339394.9843389624</v>
+        <v>339394.9843389625</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>349349.952978657</v>
+        <v>349349.9529786567</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>349349.952978657</v>
+        <v>349349.9529786567</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>349349.952978657</v>
+        <v>349349.9529786567</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>349349.952978657</v>
+        <v>349349.9529786566</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>349349.952978657</v>
+        <v>349349.9529786568</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>349349.952978657</v>
+        <v>349349.9529786567</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>349349.9529786571</v>
+        <v>349349.9529786567</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>349349.9529786571</v>
+        <v>349349.9529786567</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>379453.8588450989</v>
+        <v>379453.858845099</v>
       </c>
       <c r="C2" t="n">
-        <v>379453.8588450989</v>
+        <v>379453.858845099</v>
       </c>
       <c r="D2" t="n">
-        <v>388706.8069205462</v>
+        <v>388706.8069205463</v>
       </c>
       <c r="E2" t="n">
-        <v>228081.4783861851</v>
+        <v>228081.4783861852</v>
       </c>
       <c r="F2" t="n">
         <v>228081.4783861852</v>
@@ -26334,28 +26334,28 @@
         <v>228081.4783861852</v>
       </c>
       <c r="I2" t="n">
-        <v>234682.5783707576</v>
+        <v>234682.5783707574</v>
       </c>
       <c r="J2" t="n">
-        <v>234682.5783707577</v>
+        <v>234682.5783707575</v>
       </c>
       <c r="K2" t="n">
-        <v>234682.5783707577</v>
+        <v>234682.5783707575</v>
       </c>
       <c r="L2" t="n">
-        <v>234682.5783707577</v>
+        <v>234682.5783707574</v>
       </c>
       <c r="M2" t="n">
-        <v>234682.5783707577</v>
+        <v>234682.5783707575</v>
       </c>
       <c r="N2" t="n">
-        <v>234682.5783707577</v>
+        <v>234682.5783707575</v>
       </c>
       <c r="O2" t="n">
-        <v>234682.5783707576</v>
+        <v>234682.5783707574</v>
       </c>
       <c r="P2" t="n">
-        <v>234682.5783707576</v>
+        <v>234682.5783707574</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18943.98047935687</v>
+        <v>18943.98047935621</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>10456.45543630175</v>
+        <v>10456.45543630173</v>
       </c>
       <c r="M3" t="n">
         <v>136754.9043831154</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
         <v>294463.6810029484</v>
       </c>
       <c r="E4" t="n">
-        <v>17402.7325477806</v>
+        <v>17402.73254778061</v>
       </c>
       <c r="F4" t="n">
-        <v>17402.73254778062</v>
+        <v>17402.73254778061</v>
       </c>
       <c r="G4" t="n">
         <v>17402.73254778061</v>
       </c>
       <c r="H4" t="n">
-        <v>17402.73254778062</v>
+        <v>17402.73254778061</v>
       </c>
       <c r="I4" t="n">
-        <v>18038.56639529205</v>
+        <v>18038.56639529203</v>
       </c>
       <c r="J4" t="n">
-        <v>18038.56639529206</v>
+        <v>18038.56639529204</v>
       </c>
       <c r="K4" t="n">
-        <v>18038.56639529206</v>
+        <v>18038.56639529204</v>
       </c>
       <c r="L4" t="n">
-        <v>18038.56639529206</v>
+        <v>18038.56639529204</v>
       </c>
       <c r="M4" t="n">
-        <v>18038.56639529206</v>
+        <v>18038.56639529204</v>
       </c>
       <c r="N4" t="n">
-        <v>18038.56639529206</v>
+        <v>18038.56639529204</v>
       </c>
       <c r="O4" t="n">
-        <v>18038.56639529205</v>
+        <v>18038.56639529204</v>
       </c>
       <c r="P4" t="n">
-        <v>18038.56639529205</v>
+        <v>18038.56639529204</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>36853.56981021012</v>
       </c>
       <c r="E5" t="n">
+        <v>46051.08120963782</v>
+      </c>
+      <c r="F5" t="n">
         <v>46051.08120963781</v>
-      </c>
-      <c r="F5" t="n">
-        <v>46051.08120963782</v>
       </c>
       <c r="G5" t="n">
         <v>46051.08120963782</v>
       </c>
       <c r="H5" t="n">
-        <v>46051.08120963783</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="I5" t="n">
-        <v>47767.76961397019</v>
+        <v>47767.76961397014</v>
       </c>
       <c r="J5" t="n">
-        <v>47767.7696139702</v>
+        <v>47767.76961397015</v>
       </c>
       <c r="K5" t="n">
-        <v>47767.7696139702</v>
+        <v>47767.76961397015</v>
       </c>
       <c r="L5" t="n">
-        <v>47767.7696139702</v>
+        <v>47767.76961397014</v>
       </c>
       <c r="M5" t="n">
-        <v>47767.7696139702</v>
+        <v>47767.76961397015</v>
       </c>
       <c r="N5" t="n">
-        <v>47767.7696139702</v>
+        <v>47767.76961397015</v>
       </c>
       <c r="O5" t="n">
-        <v>47767.7696139702</v>
+        <v>47767.76961397015</v>
       </c>
       <c r="P5" t="n">
-        <v>47767.76961397021</v>
+        <v>47767.76961397015</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>47095.54253326607</v>
+        <v>47063.63581576456</v>
       </c>
       <c r="C6" t="n">
-        <v>47095.54253326613</v>
+        <v>47063.63581576456</v>
       </c>
       <c r="D6" t="n">
-        <v>16505.66156263186</v>
+        <v>16505.66156263192</v>
       </c>
       <c r="E6" t="n">
-        <v>-347857.8449272149</v>
+        <v>-348411.7253704368</v>
       </c>
       <c r="F6" t="n">
-        <v>164627.6646287667</v>
+        <v>164073.7841855448</v>
       </c>
       <c r="G6" t="n">
-        <v>164627.6646287667</v>
+        <v>164073.7841855448</v>
       </c>
       <c r="H6" t="n">
-        <v>164627.6646287667</v>
+        <v>164073.7841855448</v>
       </c>
       <c r="I6" t="n">
-        <v>149932.2618821385</v>
+        <v>149401.143852657</v>
       </c>
       <c r="J6" t="n">
-        <v>168876.2423614954</v>
+        <v>168345.1243320132</v>
       </c>
       <c r="K6" t="n">
-        <v>168876.2423614954</v>
+        <v>168345.1243320133</v>
       </c>
       <c r="L6" t="n">
-        <v>158419.7869251937</v>
+        <v>157888.6688957115</v>
       </c>
       <c r="M6" t="n">
-        <v>32121.33797838002</v>
+        <v>31590.21994889788</v>
       </c>
       <c r="N6" t="n">
-        <v>168876.2423614954</v>
+        <v>168345.1243320133</v>
       </c>
       <c r="O6" t="n">
-        <v>168876.2423614954</v>
+        <v>168345.1243320132</v>
       </c>
       <c r="P6" t="n">
-        <v>168876.2423614954</v>
+        <v>168345.1243320132</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>32.7531020605716</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="F3" t="n">
         <v>466.7019280932212</v>
@@ -26755,31 +26755,31 @@
         <v>466.7019280932212</v>
       </c>
       <c r="H3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932213</v>
       </c>
       <c r="I3" t="n">
-        <v>484.0972107528678</v>
+        <v>484.0972107528672</v>
       </c>
       <c r="J3" t="n">
-        <v>484.0972107528679</v>
+        <v>484.0972107528672</v>
       </c>
       <c r="K3" t="n">
-        <v>484.0972107528679</v>
+        <v>484.0972107528672</v>
       </c>
       <c r="L3" t="n">
-        <v>484.0972107528679</v>
+        <v>484.0972107528672</v>
       </c>
       <c r="M3" t="n">
-        <v>484.0972107528679</v>
+        <v>484.0972107528673</v>
       </c>
       <c r="N3" t="n">
-        <v>484.0972107528679</v>
+        <v>484.0972107528672</v>
       </c>
       <c r="O3" t="n">
-        <v>484.0972107528679</v>
+        <v>484.0972107528672</v>
       </c>
       <c r="P3" t="n">
-        <v>484.0972107528679</v>
+        <v>484.0972107528673</v>
       </c>
     </row>
     <row r="4">
@@ -26798,40 +26798,40 @@
         <v>41.31500304752735</v>
       </c>
       <c r="E4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="F4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="G4" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="H4" t="n">
-        <v>590.0818943619344</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="I4" t="n">
-        <v>612.0797766374618</v>
+        <v>612.0797766374611</v>
       </c>
       <c r="J4" t="n">
-        <v>612.0797766374619</v>
+        <v>612.0797766374612</v>
       </c>
       <c r="K4" t="n">
-        <v>612.0797766374619</v>
+        <v>612.0797766374612</v>
       </c>
       <c r="L4" t="n">
-        <v>612.0797766374619</v>
+        <v>612.0797766374611</v>
       </c>
       <c r="M4" t="n">
-        <v>612.0797766374619</v>
+        <v>612.0797766374612</v>
       </c>
       <c r="N4" t="n">
-        <v>612.0797766374619</v>
+        <v>612.0797766374612</v>
       </c>
       <c r="O4" t="n">
-        <v>612.0797766374619</v>
+        <v>612.0797766374612</v>
       </c>
       <c r="P4" t="n">
-        <v>612.079776637462</v>
+        <v>612.0797766374612</v>
       </c>
     </row>
   </sheetData>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>17.39528265964663</v>
+        <v>17.39528265964594</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>41.31500304752735</v>
       </c>
       <c r="E4" t="n">
-        <v>548.7668913144066</v>
+        <v>548.7668913144068</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>21.99788227552745</v>
+        <v>21.99788227552688</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>41.31500304752735</v>
+        <v>41.31500304752728</v>
       </c>
       <c r="M4" t="n">
-        <v>548.7668913144066</v>
+        <v>548.7668913144068</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>41.31500304752735</v>
       </c>
       <c r="M4" t="n">
-        <v>548.7668913144066</v>
+        <v>548.7668913144068</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27937,7 +27937,7 @@
         <v>105.3918965517241</v>
       </c>
       <c r="D9" t="n">
-        <v>94.13938596491228</v>
+        <v>52.82438291738493</v>
       </c>
       <c r="E9" t="n">
         <v>93.17921052631581</v>
@@ -27949,7 +27949,7 @@
         <v>84.46078876789484</v>
       </c>
       <c r="H9" t="n">
-        <v>4.247641631108515</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27988,16 +27988,16 @@
         <v>128.5928940176698</v>
       </c>
       <c r="U9" t="n">
-        <v>174.5685466570983</v>
+        <v>137.5011852406794</v>
       </c>
       <c r="V9" t="n">
-        <v>155.8113397110933</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W9" t="n">
         <v>183.4695267241379</v>
       </c>
       <c r="X9" t="n">
-        <v>112.0037583559815</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y9" t="n">
         <v>83.90591838104407</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>148.5854294842699</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>129.52109135408</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -28028,10 +28028,10 @@
         <v>163.8762992535017</v>
       </c>
       <c r="H10" t="n">
-        <v>120.1357315113781</v>
+        <v>137.9780290613614</v>
       </c>
       <c r="I10" t="n">
-        <v>85.99716511640959</v>
+        <v>44.68216206888224</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28067,19 +28067,19 @@
         <v>243.1682919906331</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6454491228296</v>
+        <v>257.8031515728463</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>227.991137322044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>201.6228340723943</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>183.8304709315055</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -31758,28 +31758,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -31791,7 +31791,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U11" t="n">
         <v>0.1500950924520911</v>
@@ -31834,13 +31834,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I12" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
@@ -31852,25 +31852,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U12" t="n">
         <v>0.06604272567356906</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I13" t="n">
         <v>25.30901603495698</v>
@@ -31922,7 +31922,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
@@ -31946,10 +31946,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U13" t="n">
         <v>0.04590510768130049</v>
@@ -32338,7 +32338,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
@@ -32466,13 +32466,13 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H20" t="n">
-        <v>19.21451706968723</v>
+        <v>19.21451706968724</v>
       </c>
       <c r="I20" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699062</v>
       </c>
       <c r="J20" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125711</v>
       </c>
       <c r="K20" t="n">
         <v>238.6582327062838</v>
@@ -32481,10 +32481,10 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816034</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994722</v>
       </c>
       <c r="O20" t="n">
         <v>316.1166813548411</v>
@@ -32499,10 +32499,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S20" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065038</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112867</v>
       </c>
       <c r="U20" t="n">
         <v>0.1500950924520911</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.003849430238249</v>
+        <v>1.00384943023825</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879938</v>
       </c>
       <c r="I21" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562341</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N21" t="n">
         <v>261.0845059811314</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917227</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233626</v>
       </c>
       <c r="S21" t="n">
-        <v>18.64606288183764</v>
+        <v>18.64606288183765</v>
       </c>
       <c r="T21" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356907</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,25 +32621,25 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238416</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051978</v>
       </c>
       <c r="I22" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495699</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624558</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M22" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N22" t="n">
         <v>128.7867795998885</v>
@@ -32651,19 +32651,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.47199114207639</v>
+        <v>70.4719911420764</v>
       </c>
       <c r="R22" t="n">
-        <v>37.84111043195198</v>
+        <v>37.841110431952</v>
       </c>
       <c r="S22" t="n">
         <v>14.66668190417549</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701868</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.0459051076813005</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.946119440212532</v>
+        <v>1.94611944021253</v>
       </c>
       <c r="H23" t="n">
-        <v>19.9306957170766</v>
+        <v>19.93069571707658</v>
       </c>
       <c r="I23" t="n">
-        <v>75.02776971879372</v>
+        <v>75.02776971879364</v>
       </c>
       <c r="J23" t="n">
-        <v>165.1744548387386</v>
+        <v>165.1744548387384</v>
       </c>
       <c r="K23" t="n">
-        <v>247.5536907429351</v>
+        <v>247.5536907429348</v>
       </c>
       <c r="L23" t="n">
-        <v>307.1122435613395</v>
+        <v>307.1122435613391</v>
       </c>
       <c r="M23" t="n">
-        <v>341.7215451562191</v>
+        <v>341.7215451562187</v>
       </c>
       <c r="N23" t="n">
-        <v>347.250957015723</v>
+        <v>347.2509570157226</v>
       </c>
       <c r="O23" t="n">
-        <v>327.8992318321096</v>
+        <v>327.8992318321092</v>
       </c>
       <c r="P23" t="n">
-        <v>279.8544081518626</v>
+        <v>279.8544081518623</v>
       </c>
       <c r="Q23" t="n">
-        <v>210.1590056992513</v>
+        <v>210.159005699251</v>
       </c>
       <c r="R23" t="n">
-        <v>122.2479252862506</v>
+        <v>122.2479252862504</v>
       </c>
       <c r="S23" t="n">
-        <v>44.34719674384313</v>
+        <v>44.34719674384307</v>
       </c>
       <c r="T23" t="n">
-        <v>8.519137849530365</v>
+        <v>8.519137849530354</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1556895552170026</v>
+        <v>0.1556895552170024</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.041265698600508</v>
+        <v>1.041265698600507</v>
       </c>
       <c r="H24" t="n">
-        <v>10.05643451016807</v>
+        <v>10.05643451016805</v>
       </c>
       <c r="I24" t="n">
-        <v>35.85059532462276</v>
+        <v>35.85059532462272</v>
       </c>
       <c r="J24" t="n">
-        <v>98.37677374365592</v>
+        <v>98.3767737436558</v>
       </c>
       <c r="K24" t="n">
-        <v>168.14157554989</v>
+        <v>168.1415755498898</v>
       </c>
       <c r="L24" t="n">
-        <v>226.0870982860446</v>
+        <v>226.0870982860443</v>
       </c>
       <c r="M24" t="n">
-        <v>263.8329798603129</v>
+        <v>263.8329798603126</v>
       </c>
       <c r="N24" t="n">
-        <v>208.1960706620268</v>
+        <v>270.8158537776819</v>
       </c>
       <c r="O24" t="n">
-        <v>247.7435980350077</v>
+        <v>185.1238149193539</v>
       </c>
       <c r="P24" t="n">
-        <v>198.8360788845128</v>
+        <v>198.8360788845126</v>
       </c>
       <c r="Q24" t="n">
-        <v>132.9166530353912</v>
+        <v>132.916653035391</v>
       </c>
       <c r="R24" t="n">
-        <v>64.64981240959999</v>
+        <v>64.64981240959992</v>
       </c>
       <c r="S24" t="n">
-        <v>19.34105365602258</v>
+        <v>19.34105365602256</v>
       </c>
       <c r="T24" t="n">
-        <v>4.197031478130993</v>
+        <v>4.197031478130989</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06850432227634924</v>
+        <v>0.06850432227634917</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8729621833248434</v>
+        <v>0.8729621833248424</v>
       </c>
       <c r="H25" t="n">
-        <v>7.761427411742705</v>
+        <v>7.761427411742695</v>
       </c>
       <c r="I25" t="n">
-        <v>26.25235365853257</v>
+        <v>26.25235365853254</v>
       </c>
       <c r="J25" t="n">
-        <v>61.71842636106643</v>
+        <v>61.71842636106636</v>
       </c>
       <c r="K25" t="n">
-        <v>101.42233366265</v>
+        <v>101.4223336626498</v>
       </c>
       <c r="L25" t="n">
-        <v>129.785668600859</v>
+        <v>129.7856686008589</v>
       </c>
       <c r="M25" t="n">
-        <v>136.8407902460934</v>
+        <v>136.8407902460932</v>
       </c>
       <c r="N25" t="n">
-        <v>133.5870221082464</v>
+        <v>133.5870221082462</v>
       </c>
       <c r="O25" t="n">
-        <v>123.3892366030425</v>
+        <v>123.3892366030423</v>
       </c>
       <c r="P25" t="n">
-        <v>105.5808080632156</v>
+        <v>105.5808080632154</v>
       </c>
       <c r="Q25" t="n">
-        <v>73.09867882368303</v>
+        <v>73.09867882368295</v>
       </c>
       <c r="R25" t="n">
-        <v>39.25155417022432</v>
+        <v>39.25155417022427</v>
       </c>
       <c r="S25" t="n">
-        <v>15.21335004939749</v>
+        <v>15.21335004939748</v>
       </c>
       <c r="T25" t="n">
-        <v>3.729929328751603</v>
+        <v>3.729929328751599</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04761611909044607</v>
+        <v>0.047616119090446</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.946119440212533</v>
+        <v>1.94611944021253</v>
       </c>
       <c r="H26" t="n">
-        <v>19.93069571707661</v>
+        <v>19.93069571707658</v>
       </c>
       <c r="I26" t="n">
-        <v>75.02776971879373</v>
+        <v>75.02776971879364</v>
       </c>
       <c r="J26" t="n">
-        <v>165.1744548387386</v>
+        <v>165.1744548387384</v>
       </c>
       <c r="K26" t="n">
-        <v>247.5536907429351</v>
+        <v>247.5536907429348</v>
       </c>
       <c r="L26" t="n">
-        <v>307.1122435613395</v>
+        <v>307.1122435613391</v>
       </c>
       <c r="M26" t="n">
-        <v>341.7215451562191</v>
+        <v>341.7215451562187</v>
       </c>
       <c r="N26" t="n">
-        <v>347.250957015723</v>
+        <v>347.2509570157226</v>
       </c>
       <c r="O26" t="n">
-        <v>327.8992318321096</v>
+        <v>327.8992318321092</v>
       </c>
       <c r="P26" t="n">
-        <v>279.8544081518627</v>
+        <v>279.8544081518623</v>
       </c>
       <c r="Q26" t="n">
-        <v>210.1590056992513</v>
+        <v>210.159005699251</v>
       </c>
       <c r="R26" t="n">
-        <v>122.2479252862506</v>
+        <v>122.2479252862504</v>
       </c>
       <c r="S26" t="n">
-        <v>44.34719674384313</v>
+        <v>44.34719674384307</v>
       </c>
       <c r="T26" t="n">
-        <v>8.519137849530367</v>
+        <v>8.519137849530354</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1556895552170026</v>
+        <v>0.1556895552170024</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.041265698600508</v>
+        <v>1.041265698600507</v>
       </c>
       <c r="H27" t="n">
-        <v>10.05643451016807</v>
+        <v>10.05643451016805</v>
       </c>
       <c r="I27" t="n">
-        <v>35.85059532462277</v>
+        <v>35.85059532462272</v>
       </c>
       <c r="J27" t="n">
-        <v>35.75699062800012</v>
+        <v>98.3767737436558</v>
       </c>
       <c r="K27" t="n">
-        <v>168.14157554989</v>
+        <v>168.1415755498898</v>
       </c>
       <c r="L27" t="n">
-        <v>226.0870982860446</v>
+        <v>226.0870982860443</v>
       </c>
       <c r="M27" t="n">
-        <v>263.8329798603129</v>
+        <v>263.8329798603126</v>
       </c>
       <c r="N27" t="n">
-        <v>270.8158537776822</v>
+        <v>270.8158537776819</v>
       </c>
       <c r="O27" t="n">
-        <v>247.7435980350078</v>
+        <v>185.1238149193539</v>
       </c>
       <c r="P27" t="n">
-        <v>198.8360788845129</v>
+        <v>198.8360788845126</v>
       </c>
       <c r="Q27" t="n">
-        <v>132.9166530353912</v>
+        <v>132.916653035391</v>
       </c>
       <c r="R27" t="n">
-        <v>64.6498124096</v>
+        <v>64.64981240959992</v>
       </c>
       <c r="S27" t="n">
-        <v>19.34105365602258</v>
+        <v>19.34105365602256</v>
       </c>
       <c r="T27" t="n">
-        <v>4.197031478130994</v>
+        <v>4.197031478130989</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06850432227634926</v>
+        <v>0.06850432227634917</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8729621833248435</v>
+        <v>0.8729621833248424</v>
       </c>
       <c r="H28" t="n">
-        <v>7.761427411742706</v>
+        <v>7.761427411742695</v>
       </c>
       <c r="I28" t="n">
-        <v>26.25235365853258</v>
+        <v>26.25235365853254</v>
       </c>
       <c r="J28" t="n">
-        <v>61.71842636106643</v>
+        <v>61.71842636106636</v>
       </c>
       <c r="K28" t="n">
-        <v>101.42233366265</v>
+        <v>101.4223336626498</v>
       </c>
       <c r="L28" t="n">
-        <v>129.785668600859</v>
+        <v>129.7856686008589</v>
       </c>
       <c r="M28" t="n">
-        <v>136.8407902460934</v>
+        <v>136.8407902460932</v>
       </c>
       <c r="N28" t="n">
-        <v>133.5870221082464</v>
+        <v>133.5870221082462</v>
       </c>
       <c r="O28" t="n">
-        <v>123.3892366030425</v>
+        <v>123.3892366030423</v>
       </c>
       <c r="P28" t="n">
-        <v>105.5808080632156</v>
+        <v>105.5808080632154</v>
       </c>
       <c r="Q28" t="n">
-        <v>73.09867882368304</v>
+        <v>73.09867882368295</v>
       </c>
       <c r="R28" t="n">
-        <v>39.25155417022432</v>
+        <v>39.25155417022427</v>
       </c>
       <c r="S28" t="n">
-        <v>15.2133500493975</v>
+        <v>15.21335004939748</v>
       </c>
       <c r="T28" t="n">
-        <v>3.729929328751604</v>
+        <v>3.729929328751599</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04761611909044607</v>
+        <v>0.047616119090446</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.946119440212533</v>
+        <v>1.94611944021253</v>
       </c>
       <c r="H29" t="n">
-        <v>19.93069571707661</v>
+        <v>19.93069571707658</v>
       </c>
       <c r="I29" t="n">
-        <v>75.02776971879373</v>
+        <v>75.02776971879364</v>
       </c>
       <c r="J29" t="n">
-        <v>165.1744548387386</v>
+        <v>165.1744548387384</v>
       </c>
       <c r="K29" t="n">
-        <v>247.5536907429351</v>
+        <v>247.5536907429348</v>
       </c>
       <c r="L29" t="n">
-        <v>307.1122435613395</v>
+        <v>307.1122435613391</v>
       </c>
       <c r="M29" t="n">
-        <v>341.7215451562191</v>
+        <v>341.7215451562187</v>
       </c>
       <c r="N29" t="n">
-        <v>347.250957015723</v>
+        <v>347.2509570157226</v>
       </c>
       <c r="O29" t="n">
-        <v>327.8992318321096</v>
+        <v>327.8992318321092</v>
       </c>
       <c r="P29" t="n">
-        <v>279.8544081518627</v>
+        <v>279.8544081518623</v>
       </c>
       <c r="Q29" t="n">
-        <v>210.1590056992513</v>
+        <v>210.159005699251</v>
       </c>
       <c r="R29" t="n">
-        <v>122.2479252862506</v>
+        <v>122.2479252862504</v>
       </c>
       <c r="S29" t="n">
-        <v>44.34719674384313</v>
+        <v>44.34719674384307</v>
       </c>
       <c r="T29" t="n">
-        <v>8.519137849530367</v>
+        <v>8.519137849530354</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1556895552170026</v>
+        <v>0.1556895552170024</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.041265698600508</v>
+        <v>1.041265698600507</v>
       </c>
       <c r="H30" t="n">
-        <v>10.05643451016807</v>
+        <v>10.05643451016805</v>
       </c>
       <c r="I30" t="n">
-        <v>35.85059532462277</v>
+        <v>35.85059532462272</v>
       </c>
       <c r="J30" t="n">
-        <v>98.37677374365593</v>
+        <v>98.3767737436558</v>
       </c>
       <c r="K30" t="n">
-        <v>168.14157554989</v>
+        <v>168.1415755498898</v>
       </c>
       <c r="L30" t="n">
-        <v>163.4673151703888</v>
+        <v>226.0870982860443</v>
       </c>
       <c r="M30" t="n">
-        <v>263.8329798603129</v>
+        <v>263.8329798603126</v>
       </c>
       <c r="N30" t="n">
-        <v>270.8158537776822</v>
+        <v>270.8158537776819</v>
       </c>
       <c r="O30" t="n">
-        <v>247.7435980350078</v>
+        <v>247.7435980350074</v>
       </c>
       <c r="P30" t="n">
-        <v>198.8360788845129</v>
+        <v>136.216295768859</v>
       </c>
       <c r="Q30" t="n">
-        <v>132.9166530353912</v>
+        <v>132.916653035391</v>
       </c>
       <c r="R30" t="n">
-        <v>64.6498124096</v>
+        <v>64.64981240959992</v>
       </c>
       <c r="S30" t="n">
-        <v>19.34105365602258</v>
+        <v>19.34105365602256</v>
       </c>
       <c r="T30" t="n">
-        <v>4.197031478130994</v>
+        <v>4.197031478130989</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06850432227634926</v>
+        <v>0.06850432227634917</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8729621833248435</v>
+        <v>0.8729621833248424</v>
       </c>
       <c r="H31" t="n">
-        <v>7.761427411742706</v>
+        <v>7.761427411742695</v>
       </c>
       <c r="I31" t="n">
-        <v>26.25235365853258</v>
+        <v>26.25235365853254</v>
       </c>
       <c r="J31" t="n">
-        <v>61.71842636106643</v>
+        <v>61.71842636106636</v>
       </c>
       <c r="K31" t="n">
-        <v>101.42233366265</v>
+        <v>101.4223336626498</v>
       </c>
       <c r="L31" t="n">
-        <v>129.785668600859</v>
+        <v>129.7856686008589</v>
       </c>
       <c r="M31" t="n">
-        <v>136.8407902460934</v>
+        <v>136.8407902460932</v>
       </c>
       <c r="N31" t="n">
-        <v>133.5870221082464</v>
+        <v>133.5870221082462</v>
       </c>
       <c r="O31" t="n">
-        <v>123.3892366030425</v>
+        <v>123.3892366030423</v>
       </c>
       <c r="P31" t="n">
-        <v>105.5808080632156</v>
+        <v>105.5808080632154</v>
       </c>
       <c r="Q31" t="n">
-        <v>73.09867882368304</v>
+        <v>73.09867882368295</v>
       </c>
       <c r="R31" t="n">
-        <v>39.25155417022432</v>
+        <v>39.25155417022427</v>
       </c>
       <c r="S31" t="n">
-        <v>15.2133500493975</v>
+        <v>15.21335004939748</v>
       </c>
       <c r="T31" t="n">
-        <v>3.729929328751604</v>
+        <v>3.729929328751599</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04761611909044607</v>
+        <v>0.047616119090446</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.946119440212533</v>
+        <v>1.94611944021253</v>
       </c>
       <c r="H32" t="n">
-        <v>19.93069571707661</v>
+        <v>19.93069571707658</v>
       </c>
       <c r="I32" t="n">
-        <v>75.02776971879373</v>
+        <v>75.02776971879364</v>
       </c>
       <c r="J32" t="n">
-        <v>165.1744548387386</v>
+        <v>165.1744548387384</v>
       </c>
       <c r="K32" t="n">
-        <v>247.5536907429351</v>
+        <v>247.5536907429348</v>
       </c>
       <c r="L32" t="n">
-        <v>307.1122435613395</v>
+        <v>307.1122435613391</v>
       </c>
       <c r="M32" t="n">
-        <v>341.7215451562191</v>
+        <v>341.7215451562187</v>
       </c>
       <c r="N32" t="n">
-        <v>347.250957015723</v>
+        <v>347.2509570157226</v>
       </c>
       <c r="O32" t="n">
-        <v>327.8992318321096</v>
+        <v>327.8992318321092</v>
       </c>
       <c r="P32" t="n">
-        <v>279.8544081518627</v>
+        <v>279.8544081518623</v>
       </c>
       <c r="Q32" t="n">
-        <v>210.1590056992513</v>
+        <v>210.159005699251</v>
       </c>
       <c r="R32" t="n">
-        <v>122.2479252862506</v>
+        <v>122.2479252862504</v>
       </c>
       <c r="S32" t="n">
-        <v>44.34719674384313</v>
+        <v>44.34719674384307</v>
       </c>
       <c r="T32" t="n">
-        <v>8.519137849530367</v>
+        <v>8.519137849530354</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1556895552170026</v>
+        <v>0.1556895552170024</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.041265698600508</v>
+        <v>1.041265698600507</v>
       </c>
       <c r="H33" t="n">
-        <v>10.05643451016807</v>
+        <v>10.05643451016805</v>
       </c>
       <c r="I33" t="n">
-        <v>35.85059532462277</v>
+        <v>35.85059532462272</v>
       </c>
       <c r="J33" t="n">
-        <v>98.37677374365593</v>
+        <v>98.3767737436558</v>
       </c>
       <c r="K33" t="n">
-        <v>168.14157554989</v>
+        <v>168.1415755498898</v>
       </c>
       <c r="L33" t="n">
-        <v>226.0870982860446</v>
+        <v>226.0870982860443</v>
       </c>
       <c r="M33" t="n">
-        <v>263.8329798603129</v>
+        <v>263.8329798603126</v>
       </c>
       <c r="N33" t="n">
-        <v>270.8158537776822</v>
+        <v>270.8158537776819</v>
       </c>
       <c r="O33" t="n">
-        <v>247.7435980350078</v>
+        <v>247.7435980350074</v>
       </c>
       <c r="P33" t="n">
-        <v>198.8360788845129</v>
+        <v>198.8360788845126</v>
       </c>
       <c r="Q33" t="n">
-        <v>132.9166530353912</v>
+        <v>70.29686991973745</v>
       </c>
       <c r="R33" t="n">
-        <v>2.030029293944153</v>
+        <v>64.64981240959992</v>
       </c>
       <c r="S33" t="n">
-        <v>19.34105365602258</v>
+        <v>19.34105365602256</v>
       </c>
       <c r="T33" t="n">
-        <v>4.197031478130994</v>
+        <v>4.197031478130989</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06850432227634926</v>
+        <v>0.06850432227634917</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8729621833248435</v>
+        <v>0.8729621833248424</v>
       </c>
       <c r="H34" t="n">
-        <v>7.761427411742706</v>
+        <v>7.761427411742695</v>
       </c>
       <c r="I34" t="n">
-        <v>26.25235365853258</v>
+        <v>26.25235365853254</v>
       </c>
       <c r="J34" t="n">
-        <v>61.71842636106643</v>
+        <v>61.71842636106636</v>
       </c>
       <c r="K34" t="n">
-        <v>101.42233366265</v>
+        <v>101.4223336626498</v>
       </c>
       <c r="L34" t="n">
-        <v>129.785668600859</v>
+        <v>129.7856686008589</v>
       </c>
       <c r="M34" t="n">
-        <v>136.8407902460934</v>
+        <v>136.8407902460932</v>
       </c>
       <c r="N34" t="n">
-        <v>133.5870221082464</v>
+        <v>133.5870221082462</v>
       </c>
       <c r="O34" t="n">
-        <v>123.3892366030425</v>
+        <v>123.3892366030423</v>
       </c>
       <c r="P34" t="n">
-        <v>105.5808080632156</v>
+        <v>105.5808080632154</v>
       </c>
       <c r="Q34" t="n">
-        <v>73.09867882368304</v>
+        <v>73.09867882368295</v>
       </c>
       <c r="R34" t="n">
-        <v>39.25155417022432</v>
+        <v>39.25155417022427</v>
       </c>
       <c r="S34" t="n">
-        <v>15.2133500493975</v>
+        <v>15.21335004939748</v>
       </c>
       <c r="T34" t="n">
-        <v>3.729929328751604</v>
+        <v>3.729929328751599</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04761611909044607</v>
+        <v>0.047616119090446</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.946119440212533</v>
+        <v>1.94611944021253</v>
       </c>
       <c r="H35" t="n">
-        <v>19.93069571707661</v>
+        <v>19.93069571707658</v>
       </c>
       <c r="I35" t="n">
-        <v>75.02776971879373</v>
+        <v>75.02776971879365</v>
       </c>
       <c r="J35" t="n">
-        <v>165.1744548387386</v>
+        <v>165.1744548387384</v>
       </c>
       <c r="K35" t="n">
-        <v>247.5536907429351</v>
+        <v>247.5536907429349</v>
       </c>
       <c r="L35" t="n">
-        <v>307.1122435613395</v>
+        <v>307.1122435613391</v>
       </c>
       <c r="M35" t="n">
-        <v>341.7215451562191</v>
+        <v>341.7215451562187</v>
       </c>
       <c r="N35" t="n">
-        <v>347.250957015723</v>
+        <v>347.2509570157226</v>
       </c>
       <c r="O35" t="n">
-        <v>327.8992318321096</v>
+        <v>327.8992318321093</v>
       </c>
       <c r="P35" t="n">
-        <v>279.8544081518627</v>
+        <v>279.8544081518623</v>
       </c>
       <c r="Q35" t="n">
-        <v>210.1590056992513</v>
+        <v>210.159005699251</v>
       </c>
       <c r="R35" t="n">
-        <v>122.2479252862506</v>
+        <v>122.2479252862505</v>
       </c>
       <c r="S35" t="n">
-        <v>44.34719674384313</v>
+        <v>44.34719674384308</v>
       </c>
       <c r="T35" t="n">
-        <v>8.519137849530367</v>
+        <v>8.519137849530356</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1556895552170026</v>
+        <v>0.1556895552170024</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.041265698600508</v>
+        <v>1.041265698600507</v>
       </c>
       <c r="H36" t="n">
-        <v>10.05643451016807</v>
+        <v>10.05643451016806</v>
       </c>
       <c r="I36" t="n">
-        <v>35.85059532462277</v>
+        <v>35.85059532462272</v>
       </c>
       <c r="J36" t="n">
-        <v>98.37677374365593</v>
+        <v>35.756990628002</v>
       </c>
       <c r="K36" t="n">
-        <v>168.14157554989</v>
+        <v>168.1415755498898</v>
       </c>
       <c r="L36" t="n">
-        <v>226.0870982860446</v>
+        <v>226.0870982860443</v>
       </c>
       <c r="M36" t="n">
-        <v>263.8329798603129</v>
+        <v>263.8329798603127</v>
       </c>
       <c r="N36" t="n">
-        <v>270.8158537776822</v>
+        <v>270.8158537776819</v>
       </c>
       <c r="O36" t="n">
-        <v>185.1238149193521</v>
+        <v>247.7435980350075</v>
       </c>
       <c r="P36" t="n">
-        <v>198.8360788845129</v>
+        <v>198.8360788845126</v>
       </c>
       <c r="Q36" t="n">
-        <v>132.9166530353912</v>
+        <v>132.9166530353911</v>
       </c>
       <c r="R36" t="n">
-        <v>64.6498124096</v>
+        <v>64.64981240959993</v>
       </c>
       <c r="S36" t="n">
-        <v>19.34105365602258</v>
+        <v>19.34105365602256</v>
       </c>
       <c r="T36" t="n">
-        <v>4.197031478130994</v>
+        <v>4.197031478130989</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06850432227634926</v>
+        <v>0.06850432227634917</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8729621833248435</v>
+        <v>0.8729621833248425</v>
       </c>
       <c r="H37" t="n">
-        <v>7.761427411742706</v>
+        <v>7.761427411742696</v>
       </c>
       <c r="I37" t="n">
-        <v>26.25235365853258</v>
+        <v>26.25235365853255</v>
       </c>
       <c r="J37" t="n">
-        <v>61.71842636106643</v>
+        <v>61.71842636106636</v>
       </c>
       <c r="K37" t="n">
-        <v>101.42233366265</v>
+        <v>101.4223336626499</v>
       </c>
       <c r="L37" t="n">
-        <v>129.785668600859</v>
+        <v>129.7856686008589</v>
       </c>
       <c r="M37" t="n">
-        <v>136.8407902460934</v>
+        <v>136.8407902460933</v>
       </c>
       <c r="N37" t="n">
-        <v>133.5870221082464</v>
+        <v>133.5870221082462</v>
       </c>
       <c r="O37" t="n">
-        <v>123.3892366030425</v>
+        <v>123.3892366030423</v>
       </c>
       <c r="P37" t="n">
-        <v>105.5808080632156</v>
+        <v>105.5808080632155</v>
       </c>
       <c r="Q37" t="n">
-        <v>73.09867882368304</v>
+        <v>73.09867882368296</v>
       </c>
       <c r="R37" t="n">
-        <v>39.25155417022432</v>
+        <v>39.25155417022427</v>
       </c>
       <c r="S37" t="n">
-        <v>15.2133500493975</v>
+        <v>15.21335004939748</v>
       </c>
       <c r="T37" t="n">
-        <v>3.729929328751604</v>
+        <v>3.729929328751599</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04761611909044607</v>
+        <v>0.04761611909044601</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.946119440212533</v>
+        <v>1.94611944021253</v>
       </c>
       <c r="H38" t="n">
-        <v>19.93069571707661</v>
+        <v>19.93069571707658</v>
       </c>
       <c r="I38" t="n">
-        <v>75.02776971879373</v>
+        <v>75.02776971879364</v>
       </c>
       <c r="J38" t="n">
-        <v>165.1744548387386</v>
+        <v>165.1744548387384</v>
       </c>
       <c r="K38" t="n">
-        <v>247.5536907429351</v>
+        <v>247.5536907429348</v>
       </c>
       <c r="L38" t="n">
-        <v>307.1122435613395</v>
+        <v>307.1122435613391</v>
       </c>
       <c r="M38" t="n">
-        <v>341.7215451562191</v>
+        <v>341.7215451562187</v>
       </c>
       <c r="N38" t="n">
-        <v>347.250957015723</v>
+        <v>347.2509570157226</v>
       </c>
       <c r="O38" t="n">
-        <v>327.8992318321096</v>
+        <v>327.8992318321092</v>
       </c>
       <c r="P38" t="n">
-        <v>279.8544081518627</v>
+        <v>279.8544081518623</v>
       </c>
       <c r="Q38" t="n">
-        <v>210.1590056992513</v>
+        <v>210.159005699251</v>
       </c>
       <c r="R38" t="n">
-        <v>122.2479252862506</v>
+        <v>122.2479252862504</v>
       </c>
       <c r="S38" t="n">
-        <v>44.34719674384313</v>
+        <v>44.34719674384307</v>
       </c>
       <c r="T38" t="n">
-        <v>8.519137849530367</v>
+        <v>8.519137849530354</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1556895552170026</v>
+        <v>0.1556895552170024</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.041265698600508</v>
+        <v>1.041265698600507</v>
       </c>
       <c r="H39" t="n">
-        <v>10.05643451016807</v>
+        <v>10.05643451016805</v>
       </c>
       <c r="I39" t="n">
-        <v>35.85059532462277</v>
+        <v>35.85059532462272</v>
       </c>
       <c r="J39" t="n">
-        <v>98.37677374365593</v>
+        <v>98.3767737436558</v>
       </c>
       <c r="K39" t="n">
-        <v>168.14157554989</v>
+        <v>168.1415755498898</v>
       </c>
       <c r="L39" t="n">
-        <v>226.0870982860446</v>
+        <v>226.0870982860443</v>
       </c>
       <c r="M39" t="n">
-        <v>263.8329798603129</v>
+        <v>263.8329798603126</v>
       </c>
       <c r="N39" t="n">
-        <v>270.8158537776822</v>
+        <v>270.8158537776819</v>
       </c>
       <c r="O39" t="n">
-        <v>247.7435980350078</v>
+        <v>247.7435980350074</v>
       </c>
       <c r="P39" t="n">
-        <v>198.8360788845129</v>
+        <v>136.216295768859</v>
       </c>
       <c r="Q39" t="n">
-        <v>132.9166530353912</v>
+        <v>132.916653035391</v>
       </c>
       <c r="R39" t="n">
-        <v>2.030029293944153</v>
+        <v>64.64981240959992</v>
       </c>
       <c r="S39" t="n">
-        <v>19.34105365602258</v>
+        <v>19.34105365602256</v>
       </c>
       <c r="T39" t="n">
-        <v>4.197031478130994</v>
+        <v>4.197031478130989</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06850432227634926</v>
+        <v>0.06850432227634917</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8729621833248435</v>
+        <v>0.8729621833248424</v>
       </c>
       <c r="H40" t="n">
-        <v>7.761427411742706</v>
+        <v>7.761427411742695</v>
       </c>
       <c r="I40" t="n">
-        <v>26.25235365853258</v>
+        <v>26.25235365853254</v>
       </c>
       <c r="J40" t="n">
-        <v>61.71842636106643</v>
+        <v>61.71842636106636</v>
       </c>
       <c r="K40" t="n">
-        <v>101.42233366265</v>
+        <v>101.4223336626498</v>
       </c>
       <c r="L40" t="n">
-        <v>129.785668600859</v>
+        <v>129.7856686008589</v>
       </c>
       <c r="M40" t="n">
-        <v>136.8407902460934</v>
+        <v>136.8407902460932</v>
       </c>
       <c r="N40" t="n">
-        <v>133.5870221082464</v>
+        <v>133.5870221082462</v>
       </c>
       <c r="O40" t="n">
-        <v>123.3892366030425</v>
+        <v>123.3892366030423</v>
       </c>
       <c r="P40" t="n">
-        <v>105.5808080632156</v>
+        <v>105.5808080632154</v>
       </c>
       <c r="Q40" t="n">
-        <v>73.09867882368304</v>
+        <v>73.09867882368295</v>
       </c>
       <c r="R40" t="n">
-        <v>39.25155417022432</v>
+        <v>39.25155417022427</v>
       </c>
       <c r="S40" t="n">
-        <v>15.2133500493975</v>
+        <v>15.21335004939748</v>
       </c>
       <c r="T40" t="n">
-        <v>3.729929328751604</v>
+        <v>3.729929328751599</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04761611909044607</v>
+        <v>0.047616119090446</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.946119440212533</v>
+        <v>1.94611944021253</v>
       </c>
       <c r="H41" t="n">
-        <v>19.93069571707661</v>
+        <v>19.93069571707658</v>
       </c>
       <c r="I41" t="n">
-        <v>75.02776971879373</v>
+        <v>75.02776971879364</v>
       </c>
       <c r="J41" t="n">
-        <v>165.1744548387386</v>
+        <v>165.1744548387384</v>
       </c>
       <c r="K41" t="n">
-        <v>247.5536907429351</v>
+        <v>247.5536907429348</v>
       </c>
       <c r="L41" t="n">
-        <v>307.1122435613395</v>
+        <v>307.1122435613391</v>
       </c>
       <c r="M41" t="n">
-        <v>341.7215451562191</v>
+        <v>341.7215451562187</v>
       </c>
       <c r="N41" t="n">
-        <v>347.250957015723</v>
+        <v>347.2509570157226</v>
       </c>
       <c r="O41" t="n">
-        <v>327.8992318321096</v>
+        <v>327.8992318321092</v>
       </c>
       <c r="P41" t="n">
-        <v>279.8544081518627</v>
+        <v>279.8544081518623</v>
       </c>
       <c r="Q41" t="n">
-        <v>210.1590056992513</v>
+        <v>210.159005699251</v>
       </c>
       <c r="R41" t="n">
-        <v>122.2479252862506</v>
+        <v>122.2479252862504</v>
       </c>
       <c r="S41" t="n">
-        <v>44.34719674384313</v>
+        <v>44.34719674384307</v>
       </c>
       <c r="T41" t="n">
-        <v>8.519137849530367</v>
+        <v>8.519137849530354</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1556895552170026</v>
+        <v>0.1556895552170024</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.041265698600508</v>
+        <v>1.041265698600507</v>
       </c>
       <c r="H42" t="n">
-        <v>10.05643451016807</v>
+        <v>10.05643451016805</v>
       </c>
       <c r="I42" t="n">
-        <v>35.85059532462277</v>
+        <v>35.85059532462272</v>
       </c>
       <c r="J42" t="n">
-        <v>98.37677374365593</v>
+        <v>98.3767737436558</v>
       </c>
       <c r="K42" t="n">
-        <v>168.14157554989</v>
+        <v>168.1415755498898</v>
       </c>
       <c r="L42" t="n">
-        <v>226.0870982860446</v>
+        <v>226.0870982860443</v>
       </c>
       <c r="M42" t="n">
-        <v>263.8329798603129</v>
+        <v>263.8329798603126</v>
       </c>
       <c r="N42" t="n">
-        <v>270.8158537776822</v>
+        <v>270.8158537776819</v>
       </c>
       <c r="O42" t="n">
-        <v>247.7435980350078</v>
+        <v>247.7435980350074</v>
       </c>
       <c r="P42" t="n">
-        <v>198.8360788845129</v>
+        <v>198.8360788845126</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.29686991973563</v>
+        <v>70.29686991973745</v>
       </c>
       <c r="R42" t="n">
-        <v>64.6498124096</v>
+        <v>64.64981240959992</v>
       </c>
       <c r="S42" t="n">
-        <v>19.34105365602258</v>
+        <v>19.34105365602256</v>
       </c>
       <c r="T42" t="n">
-        <v>4.197031478130994</v>
+        <v>4.197031478130989</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06850432227634926</v>
+        <v>0.06850432227634917</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8729621833248435</v>
+        <v>0.8729621833248424</v>
       </c>
       <c r="H43" t="n">
-        <v>7.761427411742706</v>
+        <v>7.761427411742695</v>
       </c>
       <c r="I43" t="n">
-        <v>26.25235365853258</v>
+        <v>26.25235365853254</v>
       </c>
       <c r="J43" t="n">
-        <v>61.71842636106643</v>
+        <v>61.71842636106636</v>
       </c>
       <c r="K43" t="n">
-        <v>101.42233366265</v>
+        <v>101.4223336626498</v>
       </c>
       <c r="L43" t="n">
-        <v>129.785668600859</v>
+        <v>129.7856686008589</v>
       </c>
       <c r="M43" t="n">
-        <v>136.8407902460934</v>
+        <v>136.8407902460932</v>
       </c>
       <c r="N43" t="n">
-        <v>133.5870221082464</v>
+        <v>133.5870221082462</v>
       </c>
       <c r="O43" t="n">
-        <v>123.3892366030425</v>
+        <v>123.3892366030423</v>
       </c>
       <c r="P43" t="n">
-        <v>105.5808080632156</v>
+        <v>105.5808080632154</v>
       </c>
       <c r="Q43" t="n">
-        <v>73.09867882368304</v>
+        <v>73.09867882368295</v>
       </c>
       <c r="R43" t="n">
-        <v>39.25155417022432</v>
+        <v>39.25155417022427</v>
       </c>
       <c r="S43" t="n">
-        <v>15.2133500493975</v>
+        <v>15.21335004939748</v>
       </c>
       <c r="T43" t="n">
-        <v>3.729929328751604</v>
+        <v>3.729929328751599</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04761611909044607</v>
+        <v>0.047616119090446</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.946119440212533</v>
+        <v>1.94611944021253</v>
       </c>
       <c r="H44" t="n">
-        <v>19.93069571707661</v>
+        <v>19.93069571707658</v>
       </c>
       <c r="I44" t="n">
-        <v>75.02776971879375</v>
+        <v>75.02776971879365</v>
       </c>
       <c r="J44" t="n">
-        <v>165.1744548387386</v>
+        <v>165.1744548387384</v>
       </c>
       <c r="K44" t="n">
-        <v>247.5536907429352</v>
+        <v>247.5536907429349</v>
       </c>
       <c r="L44" t="n">
-        <v>307.1122435613395</v>
+        <v>307.1122435613391</v>
       </c>
       <c r="M44" t="n">
-        <v>341.7215451562192</v>
+        <v>341.7215451562187</v>
       </c>
       <c r="N44" t="n">
-        <v>347.250957015723</v>
+        <v>347.2509570157226</v>
       </c>
       <c r="O44" t="n">
-        <v>327.8992318321096</v>
+        <v>327.8992318321093</v>
       </c>
       <c r="P44" t="n">
-        <v>279.8544081518627</v>
+        <v>279.8544081518623</v>
       </c>
       <c r="Q44" t="n">
-        <v>210.1590056992513</v>
+        <v>210.159005699251</v>
       </c>
       <c r="R44" t="n">
-        <v>122.2479252862506</v>
+        <v>122.2479252862505</v>
       </c>
       <c r="S44" t="n">
-        <v>44.34719674384313</v>
+        <v>44.34719674384308</v>
       </c>
       <c r="T44" t="n">
-        <v>8.519137849530367</v>
+        <v>8.519137849530356</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1556895552170026</v>
+        <v>0.1556895552170024</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.041265698600508</v>
+        <v>1.041265698600507</v>
       </c>
       <c r="H45" t="n">
-        <v>10.05643451016807</v>
+        <v>10.05643451016806</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>35.85059532462272</v>
       </c>
       <c r="J45" t="n">
-        <v>98.37677374365595</v>
+        <v>98.37677374365582</v>
       </c>
       <c r="K45" t="n">
-        <v>168.14157554989</v>
+        <v>168.1415755498898</v>
       </c>
       <c r="L45" t="n">
-        <v>226.0870982860446</v>
+        <v>226.0870982860443</v>
       </c>
       <c r="M45" t="n">
-        <v>263.832979860313</v>
+        <v>263.8329798603127</v>
       </c>
       <c r="N45" t="n">
-        <v>270.8158537776822</v>
+        <v>270.8158537776819</v>
       </c>
       <c r="O45" t="n">
-        <v>247.7435980350078</v>
+        <v>247.7435980350075</v>
       </c>
       <c r="P45" t="n">
-        <v>198.8360788845129</v>
+        <v>136.2162957688588</v>
       </c>
       <c r="Q45" t="n">
-        <v>106.1474652443578</v>
+        <v>132.9166530353911</v>
       </c>
       <c r="R45" t="n">
-        <v>64.6498124096</v>
+        <v>64.64981240959993</v>
       </c>
       <c r="S45" t="n">
-        <v>19.34105365602259</v>
+        <v>19.34105365602256</v>
       </c>
       <c r="T45" t="n">
-        <v>4.197031478130995</v>
+        <v>4.197031478130989</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06850432227634926</v>
+        <v>0.06850432227634917</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8729621833248437</v>
+        <v>0.8729621833248425</v>
       </c>
       <c r="H46" t="n">
-        <v>7.761427411742707</v>
+        <v>7.761427411742696</v>
       </c>
       <c r="I46" t="n">
-        <v>26.25235365853258</v>
+        <v>26.25235365853255</v>
       </c>
       <c r="J46" t="n">
-        <v>61.71842636106644</v>
+        <v>61.71842636106636</v>
       </c>
       <c r="K46" t="n">
-        <v>101.42233366265</v>
+        <v>101.4223336626499</v>
       </c>
       <c r="L46" t="n">
-        <v>129.7856686008591</v>
+        <v>129.7856686008589</v>
       </c>
       <c r="M46" t="n">
-        <v>136.8407902460934</v>
+        <v>136.8407902460933</v>
       </c>
       <c r="N46" t="n">
-        <v>133.5870221082464</v>
+        <v>133.5870221082462</v>
       </c>
       <c r="O46" t="n">
-        <v>123.3892366030425</v>
+        <v>123.3892366030423</v>
       </c>
       <c r="P46" t="n">
-        <v>105.5808080632156</v>
+        <v>105.5808080632155</v>
       </c>
       <c r="Q46" t="n">
-        <v>73.09867882368304</v>
+        <v>73.09867882368296</v>
       </c>
       <c r="R46" t="n">
-        <v>39.25155417022432</v>
+        <v>39.25155417022427</v>
       </c>
       <c r="S46" t="n">
-        <v>15.2133500493975</v>
+        <v>15.21335004939748</v>
       </c>
       <c r="T46" t="n">
-        <v>3.729929328751604</v>
+        <v>3.729929328751599</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04761611909044607</v>
+        <v>0.04761611909044601</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35248,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>13.56600741041745</v>
+        <v>28.75252608797635</v>
       </c>
       <c r="J9" t="n">
         <v>6.655986523460122</v>
@@ -35269,13 +35269,13 @@
         <v>16.76186346679083</v>
       </c>
       <c r="P9" t="n">
-        <v>13.45287318408647</v>
+        <v>35.20727347132424</v>
       </c>
       <c r="Q9" t="n">
-        <v>8.992889456329024</v>
+        <v>8.99288945632901</v>
       </c>
       <c r="R9" t="n">
-        <v>41.31500304752734</v>
+        <v>4.37408408273069</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35333,25 +35333,25 @@
         <v>4.175752044673201</v>
       </c>
       <c r="K10" t="n">
-        <v>14.34259631306207</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="L10" t="n">
-        <v>41.31500304752735</v>
+        <v>8.825040956104132</v>
       </c>
       <c r="M10" t="n">
-        <v>41.31500304752735</v>
+        <v>9.258389161154689</v>
       </c>
       <c r="N10" t="n">
-        <v>9.038245360419708</v>
+        <v>9.038245360419722</v>
       </c>
       <c r="O10" t="n">
+        <v>8.348282472750284</v>
+      </c>
+      <c r="P10" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="P10" t="n">
-        <v>7.143397865800722</v>
-      </c>
       <c r="Q10" t="n">
-        <v>4.945718411146316</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,7 +35406,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
@@ -35415,7 +35415,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
         <v>329.4423112816032</v>
@@ -35424,10 +35424,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -35485,22 +35485,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J12" t="n">
         <v>94.84175691562339</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L12" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108057</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811312</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742734</v>
@@ -35573,19 +35573,19 @@
         <v>97.77787936116989</v>
       </c>
       <c r="L13" t="n">
-        <v>281.8524450409507</v>
+        <v>388.9936461616016</v>
       </c>
       <c r="M13" t="n">
-        <v>590.081894361934</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N13" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O13" t="n">
-        <v>542.8637682561045</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P13" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q13" t="n">
         <v>70.4719911420766</v>
@@ -35652,7 +35652,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
         <v>329.4423112816032</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J15" t="n">
         <v>94.84175691562339</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366645</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M16" t="n">
-        <v>131.9236286247773</v>
+        <v>142.5533002411767</v>
       </c>
       <c r="N16" t="n">
-        <v>304.5047560030955</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
         <v>542.8637682561043</v>
@@ -35825,7 +35825,7 @@
         <v>452.8039900485103</v>
       </c>
       <c r="Q16" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R16" t="n">
         <v>16.63746735027015</v>
@@ -35883,7 +35883,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J17" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K17" t="n">
         <v>238.6582327062838</v>
@@ -35892,7 +35892,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
@@ -35901,13 +35901,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R17" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36041,25 +36041,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>167.0540751263759</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L19" t="n">
-        <v>125.1220218366646</v>
+        <v>388.9936461616016</v>
       </c>
       <c r="M19" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N19" t="n">
-        <v>575.5128433954892</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O19" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q19" t="n">
         <v>70.4719911420766</v>
@@ -36117,19 +36117,19 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785922</v>
       </c>
       <c r="J20" t="n">
-        <v>159.2391669125714</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062839</v>
       </c>
       <c r="L20" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
@@ -36138,7 +36138,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811315</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917227</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>146.9548978453262</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K22" t="n">
-        <v>167.0540751263763</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L22" t="n">
-        <v>125.1220218366646</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M22" t="n">
-        <v>590.0818943619344</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N22" t="n">
         <v>575.5128433954892</v>
       </c>
       <c r="O22" t="n">
-        <v>542.8637682561043</v>
+        <v>277.1599674523495</v>
       </c>
       <c r="P22" t="n">
         <v>101.7869254320035</v>
@@ -36302,7 +36302,7 @@
         <v>70.4719911420766</v>
       </c>
       <c r="R22" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027016</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>74.61514823966232</v>
+        <v>74.61514823966223</v>
       </c>
       <c r="J23" t="n">
         <v>165.1744548387385</v>
       </c>
       <c r="K23" t="n">
-        <v>247.5536907429351</v>
+        <v>247.5536907429348</v>
       </c>
       <c r="L23" t="n">
-        <v>307.1122435613395</v>
+        <v>307.1122435613391</v>
       </c>
       <c r="M23" t="n">
-        <v>341.7215451562191</v>
+        <v>341.7215451562184</v>
       </c>
       <c r="N23" t="n">
-        <v>347.2509570157229</v>
+        <v>347.2509570157226</v>
       </c>
       <c r="O23" t="n">
-        <v>327.8992318321095</v>
+        <v>327.8992318321093</v>
       </c>
       <c r="P23" t="n">
-        <v>279.8544081518626</v>
+        <v>279.8544081518621</v>
       </c>
       <c r="Q23" t="n">
-        <v>210.1590056992513</v>
+        <v>210.1590056992509</v>
       </c>
       <c r="R23" t="n">
-        <v>122.2479252862504</v>
+        <v>122.2479252862508</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>35.85059532462277</v>
+        <v>35.85059532462271</v>
       </c>
       <c r="J24" t="n">
-        <v>98.37677374365592</v>
+        <v>98.3767737436558</v>
       </c>
       <c r="K24" t="n">
-        <v>168.14157554989</v>
+        <v>168.1415755498897</v>
       </c>
       <c r="L24" t="n">
-        <v>226.0870982860446</v>
+        <v>226.0870982860444</v>
       </c>
       <c r="M24" t="n">
-        <v>263.8329798603129</v>
+        <v>263.8329798603127</v>
       </c>
       <c r="N24" t="n">
-        <v>208.1960706620268</v>
+        <v>270.8158537776819</v>
       </c>
       <c r="O24" t="n">
-        <v>247.7435980350076</v>
+        <v>185.1238149193539</v>
       </c>
       <c r="P24" t="n">
-        <v>198.8360788845127</v>
+        <v>198.8360788845125</v>
       </c>
       <c r="Q24" t="n">
-        <v>132.9166530353912</v>
+        <v>132.9166530353909</v>
       </c>
       <c r="R24" t="n">
         <v>64.64981240959992</v>
@@ -36515,31 +36515,31 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>149.1726538001471</v>
+        <v>97.18495483414998</v>
       </c>
       <c r="K25" t="n">
-        <v>378.9561261587465</v>
+        <v>101.4223336626498</v>
       </c>
       <c r="L25" t="n">
-        <v>552.2198926089005</v>
+        <v>129.7856686008589</v>
       </c>
       <c r="M25" t="n">
-        <v>136.8407902460933</v>
+        <v>600.9659086106519</v>
       </c>
       <c r="N25" t="n">
-        <v>133.5870221082462</v>
+        <v>580.3130859038469</v>
       </c>
       <c r="O25" t="n">
-        <v>525.0676630100097</v>
+        <v>547.2975691543368</v>
       </c>
       <c r="P25" t="n">
-        <v>456.5978726797225</v>
+        <v>105.5808080632155</v>
       </c>
       <c r="Q25" t="n">
-        <v>73.09867882368326</v>
+        <v>242.9903706058367</v>
       </c>
       <c r="R25" t="n">
-        <v>18.04791108854248</v>
+        <v>18.04791108854243</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>74.61514823966233</v>
+        <v>74.61514823966223</v>
       </c>
       <c r="J26" t="n">
-        <v>165.1744548387386</v>
+        <v>165.1744548387384</v>
       </c>
       <c r="K26" t="n">
-        <v>247.5536907429351</v>
+        <v>247.5536907429348</v>
       </c>
       <c r="L26" t="n">
-        <v>307.1122435613395</v>
+        <v>307.1122435613391</v>
       </c>
       <c r="M26" t="n">
-        <v>341.7215451562191</v>
+        <v>341.7215451562187</v>
       </c>
       <c r="N26" t="n">
-        <v>347.2509570157231</v>
+        <v>347.2509570157226</v>
       </c>
       <c r="O26" t="n">
-        <v>327.8992318321095</v>
+        <v>327.8992318321093</v>
       </c>
       <c r="P26" t="n">
-        <v>279.8544081518628</v>
+        <v>279.8544081518621</v>
       </c>
       <c r="Q26" t="n">
-        <v>210.1590056992513</v>
+        <v>210.1590056992509</v>
       </c>
       <c r="R26" t="n">
-        <v>122.2479252862504</v>
+        <v>122.2479252862508</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>35.85059532462276</v>
+        <v>35.85059532462272</v>
       </c>
       <c r="J27" t="n">
-        <v>35.75699062800012</v>
+        <v>98.37677374365582</v>
       </c>
       <c r="K27" t="n">
-        <v>168.14157554989</v>
+        <v>168.1415755498898</v>
       </c>
       <c r="L27" t="n">
-        <v>226.0870982860446</v>
+        <v>226.0870982860443</v>
       </c>
       <c r="M27" t="n">
-        <v>263.8329798603129</v>
+        <v>263.8329798603127</v>
       </c>
       <c r="N27" t="n">
-        <v>270.8158537776822</v>
+        <v>270.8158537776819</v>
       </c>
       <c r="O27" t="n">
-        <v>247.7435980350078</v>
+        <v>185.1238149193539</v>
       </c>
       <c r="P27" t="n">
-        <v>198.836078884513</v>
+        <v>198.8360788845125</v>
       </c>
       <c r="Q27" t="n">
-        <v>132.9166530353912</v>
+        <v>132.9166530353909</v>
       </c>
       <c r="R27" t="n">
         <v>64.64981240959992</v>
@@ -36752,31 +36752,31 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>149.1726538001471</v>
+        <v>149.172653800147</v>
       </c>
       <c r="K28" t="n">
-        <v>378.9561261587465</v>
+        <v>378.9561261587464</v>
       </c>
       <c r="L28" t="n">
-        <v>129.785668600859</v>
+        <v>552.2198926089005</v>
       </c>
       <c r="M28" t="n">
-        <v>136.8407902460934</v>
+        <v>368.6275248709053</v>
       </c>
       <c r="N28" t="n">
-        <v>363.8996481898073</v>
+        <v>133.5870221082464</v>
       </c>
       <c r="O28" t="n">
-        <v>547.297569154337</v>
+        <v>123.3892366030423</v>
       </c>
       <c r="P28" t="n">
-        <v>456.5978726797225</v>
+        <v>456.5978726797223</v>
       </c>
       <c r="Q28" t="n">
         <v>242.9903706058367</v>
       </c>
       <c r="R28" t="n">
-        <v>18.04791108854248</v>
+        <v>18.04791108854243</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>74.61514823966233</v>
+        <v>74.61514823966223</v>
       </c>
       <c r="J29" t="n">
-        <v>165.1744548387386</v>
+        <v>165.1744548387387</v>
       </c>
       <c r="K29" t="n">
-        <v>247.5536907429351</v>
+        <v>247.5536907429348</v>
       </c>
       <c r="L29" t="n">
-        <v>307.1122435613395</v>
+        <v>307.112243561339</v>
       </c>
       <c r="M29" t="n">
-        <v>341.7215451562191</v>
+        <v>341.7215451562186</v>
       </c>
       <c r="N29" t="n">
-        <v>347.2509570157231</v>
+        <v>347.2509570157226</v>
       </c>
       <c r="O29" t="n">
-        <v>327.8992318321095</v>
+        <v>327.8992318321091</v>
       </c>
       <c r="P29" t="n">
-        <v>279.8544081518628</v>
+        <v>279.8544081518621</v>
       </c>
       <c r="Q29" t="n">
-        <v>210.1590056992513</v>
+        <v>210.1590056992509</v>
       </c>
       <c r="R29" t="n">
-        <v>122.2479252862504</v>
+        <v>122.2479252862508</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>35.85059532462276</v>
+        <v>35.85059532462272</v>
       </c>
       <c r="J30" t="n">
-        <v>98.37677374365595</v>
+        <v>98.37677374365582</v>
       </c>
       <c r="K30" t="n">
-        <v>168.14157554989</v>
+        <v>168.1415755498898</v>
       </c>
       <c r="L30" t="n">
-        <v>163.4673151703888</v>
+        <v>226.0870982860443</v>
       </c>
       <c r="M30" t="n">
-        <v>263.8329798603129</v>
+        <v>263.8329798603127</v>
       </c>
       <c r="N30" t="n">
-        <v>270.8158537776822</v>
+        <v>270.8158537776819</v>
       </c>
       <c r="O30" t="n">
-        <v>247.7435980350078</v>
+        <v>247.7435980350074</v>
       </c>
       <c r="P30" t="n">
-        <v>198.836078884513</v>
+        <v>136.216295768859</v>
       </c>
       <c r="Q30" t="n">
-        <v>132.9166530353912</v>
+        <v>132.9166530353909</v>
       </c>
       <c r="R30" t="n">
         <v>64.64981240959992</v>
@@ -36989,31 +36989,31 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>61.71842636106643</v>
+        <v>61.71842636106635</v>
       </c>
       <c r="K31" t="n">
-        <v>101.42233366265</v>
+        <v>378.9561261587464</v>
       </c>
       <c r="L31" t="n">
-        <v>335.1438888560984</v>
+        <v>552.2198926089004</v>
       </c>
       <c r="M31" t="n">
-        <v>600.965908610652</v>
+        <v>136.8407902460933</v>
       </c>
       <c r="N31" t="n">
-        <v>580.313085903847</v>
+        <v>133.5870221082462</v>
       </c>
       <c r="O31" t="n">
-        <v>547.297569154337</v>
+        <v>547.2975691543368</v>
       </c>
       <c r="P31" t="n">
-        <v>105.5808080632155</v>
+        <v>456.5978726797223</v>
       </c>
       <c r="Q31" t="n">
-        <v>73.09867882368326</v>
+        <v>138.3230001184352</v>
       </c>
       <c r="R31" t="n">
-        <v>18.04791108854248</v>
+        <v>18.04791108854243</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>74.61514823966233</v>
+        <v>74.61514823966223</v>
       </c>
       <c r="J32" t="n">
-        <v>165.1744548387386</v>
+        <v>165.1744548387385</v>
       </c>
       <c r="K32" t="n">
-        <v>247.5536907429351</v>
+        <v>247.5536907429348</v>
       </c>
       <c r="L32" t="n">
-        <v>307.1122435613395</v>
+        <v>307.1122435613391</v>
       </c>
       <c r="M32" t="n">
-        <v>341.7215451562191</v>
+        <v>341.7215451562184</v>
       </c>
       <c r="N32" t="n">
-        <v>347.2509570157231</v>
+        <v>347.2509570157226</v>
       </c>
       <c r="O32" t="n">
-        <v>327.8992318321095</v>
+        <v>327.8992318321093</v>
       </c>
       <c r="P32" t="n">
-        <v>279.8544081518628</v>
+        <v>279.8544081518621</v>
       </c>
       <c r="Q32" t="n">
-        <v>210.1590056992513</v>
+        <v>210.1590056992509</v>
       </c>
       <c r="R32" t="n">
-        <v>122.2479252862504</v>
+        <v>122.2479252862508</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>35.85059532462276</v>
+        <v>35.85059532462271</v>
       </c>
       <c r="J33" t="n">
-        <v>98.37677374365592</v>
+        <v>98.3767737436558</v>
       </c>
       <c r="K33" t="n">
-        <v>168.14157554989</v>
+        <v>168.1415755498897</v>
       </c>
       <c r="L33" t="n">
-        <v>226.0870982860447</v>
+        <v>226.0870982860444</v>
       </c>
       <c r="M33" t="n">
-        <v>263.8329798603129</v>
+        <v>263.8329798603127</v>
       </c>
       <c r="N33" t="n">
-        <v>270.8158537776822</v>
+        <v>270.8158537776819</v>
       </c>
       <c r="O33" t="n">
-        <v>247.7435980350076</v>
+        <v>247.7435980350074</v>
       </c>
       <c r="P33" t="n">
-        <v>198.836078884513</v>
+        <v>198.8360788845125</v>
       </c>
       <c r="Q33" t="n">
-        <v>132.9166530353914</v>
+        <v>70.29686991973745</v>
       </c>
       <c r="R33" t="n">
-        <v>2.030029293944153</v>
+        <v>64.64981240959992</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,31 +37226,31 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>61.71842636106643</v>
+        <v>61.71842636106636</v>
       </c>
       <c r="K34" t="n">
-        <v>101.42233366265</v>
+        <v>378.9561261587464</v>
       </c>
       <c r="L34" t="n">
-        <v>552.2198926089006</v>
+        <v>552.2198926089004</v>
       </c>
       <c r="M34" t="n">
-        <v>600.9659086106519</v>
+        <v>136.8407902460933</v>
       </c>
       <c r="N34" t="n">
-        <v>580.313085903847</v>
+        <v>133.5870221082462</v>
       </c>
       <c r="O34" t="n">
-        <v>330.2215654015349</v>
+        <v>547.2975691543368</v>
       </c>
       <c r="P34" t="n">
-        <v>105.5808080632155</v>
+        <v>456.5978726797223</v>
       </c>
       <c r="Q34" t="n">
-        <v>73.09867882368326</v>
+        <v>138.3230001184347</v>
       </c>
       <c r="R34" t="n">
-        <v>18.04791108854248</v>
+        <v>18.04791108854243</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>74.61514823966233</v>
+        <v>74.61514823966225</v>
       </c>
       <c r="J35" t="n">
         <v>165.1744548387387</v>
       </c>
       <c r="K35" t="n">
-        <v>247.553690742935</v>
+        <v>247.5536907429348</v>
       </c>
       <c r="L35" t="n">
-        <v>307.1122435613395</v>
+        <v>307.1122435613391</v>
       </c>
       <c r="M35" t="n">
-        <v>341.721545156219</v>
+        <v>341.7215451562187</v>
       </c>
       <c r="N35" t="n">
-        <v>347.2509570157231</v>
+        <v>347.2509570157226</v>
       </c>
       <c r="O35" t="n">
-        <v>327.8992318321098</v>
+        <v>327.8992318321093</v>
       </c>
       <c r="P35" t="n">
         <v>279.8544081518626</v>
       </c>
       <c r="Q35" t="n">
-        <v>210.1590056992513</v>
+        <v>210.1590056992509</v>
       </c>
       <c r="R35" t="n">
-        <v>122.2479252862508</v>
+        <v>122.2479252862504</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>35.85059532462276</v>
+        <v>35.85059532462273</v>
       </c>
       <c r="J36" t="n">
-        <v>98.37677374365595</v>
+        <v>35.756990628002</v>
       </c>
       <c r="K36" t="n">
-        <v>168.14157554989</v>
+        <v>168.1415755498898</v>
       </c>
       <c r="L36" t="n">
-        <v>226.0870982860445</v>
+        <v>226.0870982860444</v>
       </c>
       <c r="M36" t="n">
-        <v>263.8329798603129</v>
+        <v>263.8329798603127</v>
       </c>
       <c r="N36" t="n">
-        <v>270.8158537776822</v>
+        <v>270.8158537776819</v>
       </c>
       <c r="O36" t="n">
-        <v>185.1238149193521</v>
+        <v>247.7435980350074</v>
       </c>
       <c r="P36" t="n">
-        <v>198.836078884513</v>
+        <v>198.8360788845125</v>
       </c>
       <c r="Q36" t="n">
         <v>132.9166530353912</v>
@@ -37463,31 +37463,31 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>149.1726538001471</v>
+        <v>149.172653800147</v>
       </c>
       <c r="K37" t="n">
-        <v>378.9561261587465</v>
+        <v>378.9561261587464</v>
       </c>
       <c r="L37" t="n">
-        <v>129.785668600859</v>
+        <v>129.7856686008589</v>
       </c>
       <c r="M37" t="n">
-        <v>600.965908610652</v>
+        <v>600.9659086106519</v>
       </c>
       <c r="N37" t="n">
-        <v>133.5870221082464</v>
+        <v>580.3130859038467</v>
       </c>
       <c r="O37" t="n">
-        <v>313.4850768713393</v>
+        <v>123.3892366030423</v>
       </c>
       <c r="P37" t="n">
-        <v>456.5978726797225</v>
+        <v>199.9676491524169</v>
       </c>
       <c r="Q37" t="n">
         <v>242.9903706058367</v>
       </c>
       <c r="R37" t="n">
-        <v>18.04791108854248</v>
+        <v>18.04791108854244</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>74.61514823966233</v>
+        <v>74.61514823966223</v>
       </c>
       <c r="J38" t="n">
-        <v>165.1744548387386</v>
+        <v>165.1744548387384</v>
       </c>
       <c r="K38" t="n">
-        <v>247.5536907429351</v>
+        <v>247.5536907429349</v>
       </c>
       <c r="L38" t="n">
-        <v>307.1122435613395</v>
+        <v>307.1122435613393</v>
       </c>
       <c r="M38" t="n">
-        <v>341.7215451562191</v>
+        <v>341.7215451562188</v>
       </c>
       <c r="N38" t="n">
-        <v>347.2509570157231</v>
+        <v>347.2509570157224</v>
       </c>
       <c r="O38" t="n">
-        <v>327.8992318321095</v>
+        <v>327.8992318321091</v>
       </c>
       <c r="P38" t="n">
-        <v>279.8544081518628</v>
+        <v>279.8544081518621</v>
       </c>
       <c r="Q38" t="n">
-        <v>210.1590056992513</v>
+        <v>210.1590056992509</v>
       </c>
       <c r="R38" t="n">
-        <v>122.2479252862504</v>
+        <v>122.2479252862508</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>35.85059532462276</v>
+        <v>35.85059532462272</v>
       </c>
       <c r="J39" t="n">
-        <v>98.37677374365592</v>
+        <v>98.37677374365582</v>
       </c>
       <c r="K39" t="n">
-        <v>168.14157554989</v>
+        <v>168.1415755498898</v>
       </c>
       <c r="L39" t="n">
-        <v>226.0870982860447</v>
+        <v>226.0870982860443</v>
       </c>
       <c r="M39" t="n">
-        <v>263.8329798603129</v>
+        <v>263.8329798603127</v>
       </c>
       <c r="N39" t="n">
-        <v>270.8158537776822</v>
+        <v>270.8158537776819</v>
       </c>
       <c r="O39" t="n">
-        <v>247.7435980350076</v>
+        <v>247.7435980350074</v>
       </c>
       <c r="P39" t="n">
-        <v>198.836078884513</v>
+        <v>136.216295768859</v>
       </c>
       <c r="Q39" t="n">
-        <v>132.9166530353914</v>
+        <v>132.9166530353909</v>
       </c>
       <c r="R39" t="n">
-        <v>2.030029293944153</v>
+        <v>64.64981240959992</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,31 +37700,31 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>61.71842636106643</v>
+        <v>61.71842636106635</v>
       </c>
       <c r="K40" t="n">
-        <v>101.42233366265</v>
+        <v>378.9561261587464</v>
       </c>
       <c r="L40" t="n">
-        <v>335.1438888560984</v>
+        <v>552.2198926089004</v>
       </c>
       <c r="M40" t="n">
-        <v>600.965908610652</v>
+        <v>136.8407902460933</v>
       </c>
       <c r="N40" t="n">
-        <v>580.313085903847</v>
+        <v>133.5870221082462</v>
       </c>
       <c r="O40" t="n">
-        <v>547.297569154337</v>
+        <v>547.2975691543368</v>
       </c>
       <c r="P40" t="n">
-        <v>105.5808080632155</v>
+        <v>456.5978726797223</v>
       </c>
       <c r="Q40" t="n">
-        <v>73.09867882368326</v>
+        <v>138.3230001184352</v>
       </c>
       <c r="R40" t="n">
-        <v>18.04791108854248</v>
+        <v>18.04791108854243</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>74.61514823966233</v>
+        <v>74.61514823966223</v>
       </c>
       <c r="J41" t="n">
-        <v>165.1744548387386</v>
+        <v>165.1744548387384</v>
       </c>
       <c r="K41" t="n">
-        <v>247.5536907429351</v>
+        <v>247.5536907429348</v>
       </c>
       <c r="L41" t="n">
-        <v>307.1122435613395</v>
+        <v>307.1122435613391</v>
       </c>
       <c r="M41" t="n">
-        <v>341.7215451562191</v>
+        <v>341.7215451562187</v>
       </c>
       <c r="N41" t="n">
-        <v>347.2509570157231</v>
+        <v>347.2509570157226</v>
       </c>
       <c r="O41" t="n">
-        <v>327.8992318321095</v>
+        <v>327.8992318321093</v>
       </c>
       <c r="P41" t="n">
-        <v>279.8544081518628</v>
+        <v>279.8544081518621</v>
       </c>
       <c r="Q41" t="n">
-        <v>210.1590056992513</v>
+        <v>210.1590056992509</v>
       </c>
       <c r="R41" t="n">
-        <v>122.2479252862504</v>
+        <v>122.2479252862508</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>35.85059532462276</v>
+        <v>35.85059532462272</v>
       </c>
       <c r="J42" t="n">
-        <v>98.37677374365595</v>
+        <v>98.37677374365582</v>
       </c>
       <c r="K42" t="n">
-        <v>168.14157554989</v>
+        <v>168.1415755498898</v>
       </c>
       <c r="L42" t="n">
-        <v>226.0870982860445</v>
+        <v>226.0870982860443</v>
       </c>
       <c r="M42" t="n">
-        <v>263.8329798603129</v>
+        <v>263.8329798603127</v>
       </c>
       <c r="N42" t="n">
-        <v>270.8158537776822</v>
+        <v>270.8158537776819</v>
       </c>
       <c r="O42" t="n">
-        <v>247.7435980350078</v>
+        <v>247.7435980350074</v>
       </c>
       <c r="P42" t="n">
-        <v>198.8360788845127</v>
+        <v>198.8360788845125</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.29686991973563</v>
+        <v>70.29686991973745</v>
       </c>
       <c r="R42" t="n">
         <v>64.64981240959992</v>
@@ -37937,31 +37937,31 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>61.71842636106643</v>
+        <v>61.71842636106635</v>
       </c>
       <c r="K43" t="n">
-        <v>101.42233366265</v>
+        <v>378.9561261587464</v>
       </c>
       <c r="L43" t="n">
-        <v>448.25194260415</v>
+        <v>552.2198926089004</v>
       </c>
       <c r="M43" t="n">
-        <v>136.8407902460934</v>
+        <v>136.8407902460933</v>
       </c>
       <c r="N43" t="n">
-        <v>580.313085903847</v>
+        <v>133.5870221082462</v>
       </c>
       <c r="O43" t="n">
-        <v>547.297569154337</v>
+        <v>547.2975691543368</v>
       </c>
       <c r="P43" t="n">
-        <v>456.5978726797225</v>
+        <v>456.5978726797223</v>
       </c>
       <c r="Q43" t="n">
-        <v>73.09867882368326</v>
+        <v>138.3230001184352</v>
       </c>
       <c r="R43" t="n">
-        <v>18.04791108854248</v>
+        <v>18.04791108854243</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>74.61514823966235</v>
+        <v>74.61514823966225</v>
       </c>
       <c r="J44" t="n">
         <v>165.1744548387387</v>
       </c>
       <c r="K44" t="n">
-        <v>247.5536907429351</v>
+        <v>247.5536907429348</v>
       </c>
       <c r="L44" t="n">
-        <v>307.1122435613396</v>
+        <v>307.1122435613393</v>
       </c>
       <c r="M44" t="n">
-        <v>341.7215451562192</v>
+        <v>341.7215451562186</v>
       </c>
       <c r="N44" t="n">
-        <v>347.2509570157231</v>
+        <v>347.2509570157226</v>
       </c>
       <c r="O44" t="n">
-        <v>327.8992318321095</v>
+        <v>327.8992318321093</v>
       </c>
       <c r="P44" t="n">
-        <v>279.8544081518628</v>
+        <v>279.8544081518626</v>
       </c>
       <c r="Q44" t="n">
-        <v>210.1590056992513</v>
+        <v>210.1590056992509</v>
       </c>
       <c r="R44" t="n">
         <v>122.2479252862504</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>35.85059532462273</v>
       </c>
       <c r="J45" t="n">
-        <v>98.37677374365595</v>
+        <v>98.3767737436558</v>
       </c>
       <c r="K45" t="n">
-        <v>168.14157554989</v>
+        <v>168.1415755498898</v>
       </c>
       <c r="L45" t="n">
-        <v>226.0870982860446</v>
+        <v>226.0870982860444</v>
       </c>
       <c r="M45" t="n">
-        <v>263.832979860313</v>
+        <v>263.8329798603127</v>
       </c>
       <c r="N45" t="n">
-        <v>270.8158537776823</v>
+        <v>270.8158537776818</v>
       </c>
       <c r="O45" t="n">
-        <v>247.7435980350078</v>
+        <v>247.7435980350074</v>
       </c>
       <c r="P45" t="n">
-        <v>198.836078884513</v>
+        <v>136.2162957688588</v>
       </c>
       <c r="Q45" t="n">
-        <v>106.1474652443578</v>
+        <v>132.9166530353912</v>
       </c>
       <c r="R45" t="n">
         <v>64.64981240959992</v>
@@ -38174,31 +38174,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>61.71842636106644</v>
+        <v>61.71842636106636</v>
       </c>
       <c r="K46" t="n">
-        <v>378.9561261587465</v>
+        <v>378.9561261587464</v>
       </c>
       <c r="L46" t="n">
-        <v>552.2198926089006</v>
+        <v>552.2198926089004</v>
       </c>
       <c r="M46" t="n">
-        <v>136.8407902460935</v>
+        <v>136.8407902460933</v>
       </c>
       <c r="N46" t="n">
-        <v>133.5870221082464</v>
+        <v>133.5870221082462</v>
       </c>
       <c r="O46" t="n">
-        <v>547.297569154337</v>
+        <v>547.2975691543368</v>
       </c>
       <c r="P46" t="n">
-        <v>456.5978726797225</v>
+        <v>456.5978726797223</v>
       </c>
       <c r="Q46" t="n">
-        <v>138.323000118437</v>
+        <v>138.3230001184352</v>
       </c>
       <c r="R46" t="n">
-        <v>18.04791108854249</v>
+        <v>18.04791108854244</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
